--- a/RECC_Config_V2_0.xlsx
+++ b/RECC_Config_V2_0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11176" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11129" uniqueCount="680">
   <si>
     <t>User Name</t>
   </si>
@@ -2036,6 +2036,43 @@
   </si>
   <si>
     <t>3_MC_RECC_appliances</t>
+  </si>
+  <si>
+    <t>lifetime of EGT products in use phase</t>
+  </si>
+  <si>
+    <t>rgSR</t>
+  </si>
+  <si>
+    <t>RECC Cu status</t>
+  </si>
+  <si>
+    <t>2a33a77e-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+  </si>
+  <si>
+    <t>2a33aa08-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+  </si>
+  <si>
+    <t>2a33ab66-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+  </si>
+  <si>
+    <t>2a33aca6-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+  </si>
+  <si>
+    <t>2a33addc-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+  </si>
+  <si>
+    <t>2a33b0fc-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+  </si>
+  <si>
+    <t>2a33b32c-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+  </si>
+  <si>
+    <t>2a33b48a-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -2339,7 +2376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2505,6 +2542,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39255,7 +39299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -42565,8 +42609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42586,8 +42630,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>6</v>
+      <c r="B2" s="99" t="s">
+        <v>528</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -43714,7 +43758,7 @@
         <v>187</v>
       </c>
       <c r="L70" s="32" t="s">
-        <v>188</v>
+        <v>670</v>
       </c>
       <c r="M70" s="32" t="s">
         <v>189</v>
@@ -43731,7 +43775,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="54" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="C71" s="83" t="s">
         <v>661</v>
@@ -43740,34 +43784,21 @@
       <c r="E71" s="69" t="s">
         <v>528</v>
       </c>
-      <c r="F71" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="G71" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H71" s="69" t="s">
-        <v>134</v>
-      </c>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
       <c r="I71" t="s">
-        <v>198</v>
-      </c>
-      <c r="J71" t="s">
-        <v>199</v>
-      </c>
-      <c r="K71" s="36"/>
-      <c r="L71" t="s">
-        <v>200</v>
-      </c>
-      <c r="M71" t="s">
-        <v>201</v>
-      </c>
-      <c r="N71" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="O71" t="s">
-        <v>203</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="J71" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K71" s="42"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71" s="95"/>
+      <c r="O71" s="95"/>
+      <c r="P71" s="95"/>
+      <c r="Q71" s="95"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
@@ -43785,34 +43816,21 @@
       <c r="E72" s="69" t="s">
         <v>528</v>
       </c>
-      <c r="F72" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="G72" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H72" s="69" t="s">
-        <v>134</v>
-      </c>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
       <c r="I72" t="s">
-        <v>208</v>
+        <v>673</v>
       </c>
       <c r="J72" t="s">
         <v>209</v>
       </c>
-      <c r="K72" s="36"/>
-      <c r="L72" t="s">
-        <v>210</v>
-      </c>
-      <c r="M72" t="s">
-        <v>211</v>
-      </c>
-      <c r="N72" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="O72" t="s">
-        <v>213</v>
-      </c>
+      <c r="K72" s="42"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72" s="95"/>
+      <c r="O72" s="95"/>
+      <c r="P72" s="95"/>
+      <c r="Q72" s="95"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73">
@@ -43825,39 +43843,26 @@
         <v>662</v>
       </c>
       <c r="D73" s="69" t="s">
-        <v>215</v>
+        <v>668</v>
       </c>
       <c r="E73" s="69" t="s">
         <v>528</v>
       </c>
-      <c r="F73" s="73" t="s">
-        <v>217</v>
-      </c>
-      <c r="G73" s="69" t="s">
-        <v>218</v>
-      </c>
-      <c r="H73" s="69" t="s">
-        <v>134</v>
-      </c>
+      <c r="G73" s="69"/>
+      <c r="H73" s="69"/>
       <c r="I73" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="J73" t="s">
-        <v>199</v>
-      </c>
-      <c r="K73" s="36"/>
-      <c r="L73" t="s">
-        <v>210</v>
-      </c>
-      <c r="M73" t="s">
-        <v>220</v>
-      </c>
-      <c r="N73" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="O73" t="s">
-        <v>222</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="J73" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K73" s="42"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73" s="95"/>
+      <c r="O73" s="95"/>
+      <c r="P73" s="95"/>
+      <c r="Q73" s="95"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
@@ -43875,34 +43880,21 @@
       <c r="E74" s="75" t="s">
         <v>528</v>
       </c>
-      <c r="F74" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="G74" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="H74" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="I74" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="J74" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="K74" s="36"/>
-      <c r="L74" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="M74" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="N74" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="O74" s="40" t="s">
-        <v>222</v>
-      </c>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
+      <c r="I74" t="s">
+        <v>675</v>
+      </c>
+      <c r="J74" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K74" s="42"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="96"/>
+      <c r="O74" s="96"/>
+      <c r="P74" s="95"/>
+      <c r="Q74" s="95"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
@@ -43920,34 +43912,21 @@
       <c r="E75" s="69" t="s">
         <v>528</v>
       </c>
-      <c r="F75" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="G75" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H75" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I75" t="s">
-        <v>236</v>
-      </c>
-      <c r="J75" t="s">
-        <v>199</v>
-      </c>
-      <c r="K75" s="36"/>
-      <c r="L75" t="s">
-        <v>210</v>
-      </c>
-      <c r="M75" t="s">
-        <v>237</v>
-      </c>
-      <c r="N75" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="O75" t="s">
-        <v>222</v>
-      </c>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="41" t="s">
+        <v>676</v>
+      </c>
+      <c r="J75" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K75" s="35"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75" s="95"/>
+      <c r="O75" s="95"/>
+      <c r="P75" s="95"/>
+      <c r="Q75" s="95"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -43965,34 +43944,21 @@
       <c r="E76" s="75" t="s">
         <v>528</v>
       </c>
-      <c r="F76" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="G76" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="H76" s="69" t="s">
-        <v>134</v>
-      </c>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
       <c r="I76" t="s">
-        <v>244</v>
+        <v>677</v>
       </c>
       <c r="J76" t="s">
         <v>209</v>
       </c>
-      <c r="K76" s="42"/>
-      <c r="L76" t="s">
-        <v>245</v>
-      </c>
-      <c r="M76" t="s">
-        <v>246</v>
-      </c>
-      <c r="N76" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="O76" t="s">
-        <v>222</v>
-      </c>
+      <c r="K76" s="35"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76" s="95"/>
+      <c r="O76" s="95"/>
+      <c r="P76" s="95"/>
+      <c r="Q76" s="95"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -44010,34 +43976,21 @@
       <c r="E77" s="69" t="s">
         <v>528</v>
       </c>
-      <c r="F77" s="73" t="s">
-        <v>251</v>
-      </c>
-      <c r="G77" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="H77" s="69" t="s">
-        <v>134</v>
-      </c>
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
       <c r="I77" t="s">
-        <v>252</v>
+        <v>678</v>
       </c>
       <c r="J77" t="s">
         <v>209</v>
       </c>
-      <c r="K77" s="36"/>
-      <c r="L77" t="s">
-        <v>210</v>
-      </c>
-      <c r="M77" t="s">
-        <v>253</v>
-      </c>
-      <c r="N77" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="O77" t="s">
-        <v>213</v>
-      </c>
+      <c r="K77" s="35"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77" s="95"/>
+      <c r="O77" s="95"/>
+      <c r="P77" s="95"/>
+      <c r="Q77" s="95"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -44055,36 +44008,21 @@
       <c r="E78" s="75" t="s">
         <v>528</v>
       </c>
-      <c r="F78" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="G78" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="H78" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="I78" s="40" t="s">
-        <v>259</v>
+      <c r="G78" s="75"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="97" t="s">
+        <v>671</v>
       </c>
       <c r="J78" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="K78" s="36"/>
-      <c r="L78" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="M78" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="N78" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="O78" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="96"/>
+      <c r="O78" s="96"/>
+      <c r="P78" s="96"/>
+      <c r="Q78" s="96"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="85"/>
@@ -44225,7 +44163,9 @@
       <c r="C86" s="87"/>
       <c r="D86" s="85"/>
       <c r="E86" s="85"/>
-      <c r="F86" s="90"/>
+      <c r="F86" s="73" t="s">
+        <v>196</v>
+      </c>
       <c r="G86" s="85"/>
       <c r="H86" s="85"/>
       <c r="I86" s="92"/>
@@ -44244,7 +44184,9 @@
       <c r="C87" s="87"/>
       <c r="D87" s="85"/>
       <c r="E87" s="85"/>
-      <c r="F87" s="90"/>
+      <c r="F87" s="73" t="s">
+        <v>207</v>
+      </c>
       <c r="G87" s="85"/>
       <c r="H87" s="85"/>
       <c r="I87" s="85"/>
@@ -44263,7 +44205,9 @@
       <c r="C88" s="87"/>
       <c r="D88" s="85"/>
       <c r="E88" s="85"/>
-      <c r="F88" s="90"/>
+      <c r="F88" s="73" t="s">
+        <v>669</v>
+      </c>
       <c r="G88" s="85"/>
       <c r="H88" s="85"/>
       <c r="I88" s="85"/>
@@ -44282,7 +44226,9 @@
       <c r="C89" s="87"/>
       <c r="D89" s="85"/>
       <c r="E89" s="85"/>
-      <c r="F89" s="90"/>
+      <c r="F89" s="78" t="s">
+        <v>226</v>
+      </c>
       <c r="G89" s="85"/>
       <c r="H89" s="85"/>
       <c r="I89" s="85"/>
@@ -44295,16 +44241,20 @@
       <c r="P89" s="85"/>
       <c r="Q89" s="85"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="85"/>
       <c r="B90" s="89"/>
       <c r="C90" s="87"/>
       <c r="D90" s="85"/>
       <c r="E90" s="85"/>
-      <c r="F90" s="90"/>
+      <c r="F90" s="76" t="s">
+        <v>235</v>
+      </c>
       <c r="G90" s="85"/>
       <c r="H90" s="85"/>
-      <c r="I90" s="85"/>
+      <c r="I90" s="98" t="s">
+        <v>679</v>
+      </c>
       <c r="J90" s="85"/>
       <c r="K90" s="85"/>
       <c r="L90" s="85"/>
@@ -44320,7 +44270,9 @@
       <c r="C91" s="87"/>
       <c r="D91" s="85"/>
       <c r="E91" s="87"/>
-      <c r="F91" s="90"/>
+      <c r="F91" s="76" t="s">
+        <v>242</v>
+      </c>
       <c r="G91" s="85"/>
       <c r="H91" s="85"/>
       <c r="I91" s="85"/>
@@ -44339,7 +44291,9 @@
       <c r="C92" s="87"/>
       <c r="D92" s="85"/>
       <c r="E92" s="87"/>
-      <c r="F92" s="90"/>
+      <c r="F92" s="73" t="s">
+        <v>669</v>
+      </c>
       <c r="G92" s="85"/>
       <c r="H92" s="85"/>
       <c r="I92" s="85"/>
@@ -44358,7 +44312,9 @@
       <c r="C93" s="87"/>
       <c r="D93" s="85"/>
       <c r="E93" s="85"/>
-      <c r="F93" s="90"/>
+      <c r="F93" s="78" t="s">
+        <v>258</v>
+      </c>
       <c r="G93" s="85"/>
       <c r="H93" s="85"/>
       <c r="I93" s="85"/>

--- a/RECC_Config_V2_0.xlsx
+++ b/RECC_Config_V2_0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11129" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11133" uniqueCount="682">
   <si>
     <t>User Name</t>
   </si>
@@ -2073,6 +2073,12 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>rSRGt</t>
+  </si>
+  <si>
+    <t>rSRG</t>
   </si>
 </sst>
 </file>
@@ -3014,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39299,8 +39305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView topLeftCell="C93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42609,8 +42615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="C54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43784,6 +43790,9 @@
       <c r="E71" s="69" t="s">
         <v>528</v>
       </c>
+      <c r="F71" s="90" t="s">
+        <v>680</v>
+      </c>
       <c r="G71" s="69"/>
       <c r="H71" s="69"/>
       <c r="I71" t="s">
@@ -43816,6 +43825,9 @@
       <c r="E72" s="69" t="s">
         <v>528</v>
       </c>
+      <c r="F72" s="90" t="s">
+        <v>680</v>
+      </c>
       <c r="G72" s="69"/>
       <c r="H72" s="69"/>
       <c r="I72" t="s">
@@ -43848,6 +43860,9 @@
       <c r="E73" s="69" t="s">
         <v>528</v>
       </c>
+      <c r="F73" s="90" t="s">
+        <v>681</v>
+      </c>
       <c r="G73" s="69"/>
       <c r="H73" s="69"/>
       <c r="I73" s="63" t="s">
@@ -43879,6 +43894,9 @@
       </c>
       <c r="E74" s="75" t="s">
         <v>528</v>
+      </c>
+      <c r="F74" s="90" t="s">
+        <v>681</v>
       </c>
       <c r="G74" s="75"/>
       <c r="H74" s="75"/>

--- a/RECC_Config_V2_0.xlsx
+++ b/RECC_Config_V2_0.xlsx
@@ -2120,15 +2120,9 @@
     <t>lSRgm</t>
   </si>
   <si>
-    <t>oSRgt</t>
-  </si>
-  <si>
     <t>og</t>
   </si>
   <si>
-    <t>omg</t>
-  </si>
-  <si>
     <t>lifetime of industry products in use phase</t>
   </si>
   <si>
@@ -2144,7 +2138,13 @@
     <t>lSRgct</t>
   </si>
   <si>
-    <t>oSRgct</t>
+    <t>otcSRg</t>
+  </si>
+  <si>
+    <t>otSRg</t>
+  </si>
+  <si>
+    <t>ogm</t>
   </si>
 </sst>
 </file>
@@ -3077,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="C38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4294,7 +4294,7 @@
         <v>528</v>
       </c>
       <c r="F72" s="85" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G72" s="69" t="s">
         <v>227</v>
@@ -4327,7 +4327,7 @@
         <v>662</v>
       </c>
       <c r="D73" s="69" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E73" s="69" t="s">
         <v>528</v>
@@ -4366,7 +4366,7 @@
         <v>663</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E74" s="75" t="s">
         <v>528</v>
@@ -4413,10 +4413,10 @@
         <v>528</v>
       </c>
       <c r="F75" s="85" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="G75" s="69" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="H75" s="69" t="s">
         <v>134</v>
@@ -4450,10 +4450,10 @@
         <v>528</v>
       </c>
       <c r="F76" s="85" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G76" s="69" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="H76" s="69" t="s">
         <v>134</v>
@@ -4481,16 +4481,16 @@
         <v>666</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E77" s="69" t="s">
         <v>528</v>
       </c>
       <c r="F77" s="85" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G77" s="69" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H77" s="69" t="s">
         <v>134</v>
@@ -4518,16 +4518,16 @@
         <v>667</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E78" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F78" s="85" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="G78" s="90" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H78" s="69" t="s">
         <v>134</v>
@@ -45825,7 +45825,7 @@
         <v>662</v>
       </c>
       <c r="D73" s="69" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E73" s="69" t="s">
         <v>528</v>
@@ -45858,7 +45858,7 @@
         <v>663</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E74" s="75" t="s">
         <v>528</v>
@@ -45953,7 +45953,7 @@
         <v>666</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E77" s="69" t="s">
         <v>528</v>
@@ -45983,7 +45983,7 @@
         <v>667</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E78" s="75" t="s">
         <v>528</v>

--- a/RECC_Config_V2_0.xlsx
+++ b/RECC_Config_V2_0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -2081,9 +2081,6 @@
     <t>[72:89)</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
     <t>Sector_industry</t>
   </si>
   <si>
@@ -2117,9 +2114,6 @@
     <t>lSRg</t>
   </si>
   <si>
-    <t>lSRgm</t>
-  </si>
-  <si>
     <t>og</t>
   </si>
   <si>
@@ -2145,6 +2139,12 @@
   </si>
   <si>
     <t>ogm</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>ind, app</t>
   </si>
 </sst>
 </file>
@@ -3077,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="C42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3560,7 +3560,7 @@
         <v>637</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G30" s="69" t="s">
         <v>680</v>
@@ -3583,7 +3583,7 @@
         <v>637</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G31" s="69" t="s">
         <v>680</v>
@@ -3606,7 +3606,7 @@
         <v>637</v>
       </c>
       <c r="F32" s="69" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G32" s="69" t="s">
         <v>680</v>
@@ -3629,7 +3629,7 @@
         <v>637</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G33" s="69" t="s">
         <v>680</v>
@@ -3652,7 +3652,7 @@
         <v>637</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G34" s="69" t="s">
         <v>680</v>
@@ -3675,7 +3675,7 @@
         <v>637</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G35" s="69" t="s">
         <v>681</v>
@@ -3699,10 +3699,10 @@
         <v>637</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G36" s="69" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H36" s="70" t="s">
         <v>655</v>
@@ -4255,7 +4255,7 @@
         <v>528</v>
       </c>
       <c r="F71" s="85" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>243</v>
@@ -4294,7 +4294,7 @@
         <v>528</v>
       </c>
       <c r="F72" s="85" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G72" s="69" t="s">
         <v>227</v>
@@ -4327,13 +4327,13 @@
         <v>662</v>
       </c>
       <c r="D73" s="69" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E73" s="69" t="s">
         <v>528</v>
       </c>
       <c r="F73" s="85" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G73" s="69" t="s">
         <v>197</v>
@@ -4366,16 +4366,16 @@
         <v>663</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E74" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F74" s="85" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="G74" s="69" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="H74" s="69" t="s">
         <v>134</v>
@@ -4387,7 +4387,7 @@
         <v>209</v>
       </c>
       <c r="K74" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L74" s="40"/>
       <c r="M74" s="40"/>
@@ -4413,7 +4413,7 @@
         <v>528</v>
       </c>
       <c r="F75" s="85" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G75" s="69" t="s">
         <v>243</v>
@@ -4450,7 +4450,7 @@
         <v>528</v>
       </c>
       <c r="F76" s="85" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G76" s="69" t="s">
         <v>227</v>
@@ -4481,13 +4481,13 @@
         <v>666</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E77" s="69" t="s">
         <v>528</v>
       </c>
       <c r="F77" s="85" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G77" s="69" t="s">
         <v>129</v>
@@ -4518,13 +4518,13 @@
         <v>667</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E78" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F78" s="85" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G78" s="90" t="s">
         <v>118</v>
@@ -4539,7 +4539,7 @@
         <v>209</v>
       </c>
       <c r="K78" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L78" s="40"/>
       <c r="M78" s="40"/>
@@ -4823,7 +4823,7 @@
         <v>499</v>
       </c>
       <c r="D91" s="80" t="s">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="E91" s="38" t="s">
         <v>500</v>
@@ -11620,8 +11620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14930,8 +14930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C104" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18064,7 +18064,7 @@
         <v>499</v>
       </c>
       <c r="D117" s="80" t="s">
-        <v>502</v>
+        <v>703</v>
       </c>
       <c r="E117" s="38" t="s">
         <v>500</v>
@@ -41285,8 +41285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44597,8 +44597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71:D78"/>
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45825,7 +45825,7 @@
         <v>662</v>
       </c>
       <c r="D73" s="69" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E73" s="69" t="s">
         <v>528</v>
@@ -45858,7 +45858,7 @@
         <v>663</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E74" s="75" t="s">
         <v>528</v>
@@ -45953,7 +45953,7 @@
         <v>666</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E77" s="69" t="s">
         <v>528</v>
@@ -45983,7 +45983,7 @@
         <v>667</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E78" s="75" t="s">
         <v>528</v>

--- a/RECC_Config_V2_0.xlsx
+++ b/RECC_Config_V2_0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11607" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11850" uniqueCount="706">
   <si>
     <t>User Name</t>
   </si>
@@ -2072,9 +2072,6 @@
     <t>rSRG</t>
   </si>
   <si>
-    <t>[5]</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -2102,18 +2099,12 @@
     <t>Sector_infrastructure</t>
   </si>
   <si>
-    <t>[90:101)</t>
-  </si>
-  <si>
     <t>change commodity in .py translator file</t>
   </si>
   <si>
     <t>lSRgt</t>
   </si>
   <si>
-    <t>lSRg</t>
-  </si>
-  <si>
     <t>og</t>
   </si>
   <si>
@@ -2129,9 +2120,6 @@
     <t>material composition of appliances in the use phase</t>
   </si>
   <si>
-    <t>lSRgct</t>
-  </si>
-  <si>
     <t>otcSRg</t>
   </si>
   <si>
@@ -2145,6 +2133,24 @@
   </si>
   <si>
     <t>ind, app</t>
+  </si>
+  <si>
+    <t>[5,6]</t>
+  </si>
+  <si>
+    <t>Test for ind and app ODYM-RECC Model setup</t>
+  </si>
+  <si>
+    <t>lSRgtc</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>[0:11)</t>
+  </si>
+  <si>
+    <t>[0:17)</t>
   </si>
 </sst>
 </file>
@@ -2455,7 +2461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2612,6 +2618,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3075,10 +3082,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q110"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:Q150"/>
   <sheetViews>
-    <sheetView topLeftCell="C42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3133,7 +3143,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>589</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -3517,7 +3527,7 @@
         <v>620</v>
       </c>
       <c r="G28" s="69" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="H28" s="70" t="s">
         <v>140</v>
@@ -3540,7 +3550,7 @@
         <v>93</v>
       </c>
       <c r="G29" s="69" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H29" s="70" t="s">
         <v>94</v>
@@ -3560,10 +3570,10 @@
         <v>637</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G30" s="69" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
       <c r="H30" s="70" t="s">
         <v>647</v>
@@ -3583,10 +3593,10 @@
         <v>637</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G31" s="69" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H31" s="70" t="s">
         <v>646</v>
@@ -3606,10 +3616,10 @@
         <v>637</v>
       </c>
       <c r="F32" s="69" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G32" s="69" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H32" s="70" t="s">
         <v>650</v>
@@ -3629,10 +3639,10 @@
         <v>637</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G33" s="69" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H33" s="70" t="s">
         <v>651</v>
@@ -3652,10 +3662,10 @@
         <v>637</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G34" s="69" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H34" s="70" t="s">
         <v>658</v>
@@ -3675,10 +3685,10 @@
         <v>637</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G35" s="69" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="H35" s="70" t="s">
         <v>653</v>
@@ -3686,7 +3696,7 @@
       <c r="I35" s="69" t="s">
         <v>627</v>
       </c>
-      <c r="K35"/>
+      <c r="K35" s="86"/>
     </row>
     <row r="36" spans="2:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="68" t="s">
@@ -3699,10 +3709,10 @@
         <v>637</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G36" s="69" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="H36" s="70" t="s">
         <v>655</v>
@@ -4255,7 +4265,7 @@
         <v>528</v>
       </c>
       <c r="F71" s="85" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>243</v>
@@ -4294,7 +4304,7 @@
         <v>528</v>
       </c>
       <c r="F72" s="85" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="G72" s="69" t="s">
         <v>227</v>
@@ -4327,16 +4337,16 @@
         <v>662</v>
       </c>
       <c r="D73" s="69" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E73" s="69" t="s">
         <v>528</v>
       </c>
       <c r="F73" s="85" t="s">
-        <v>692</v>
+        <v>94</v>
       </c>
       <c r="G73" s="69" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="H73" s="69" t="s">
         <v>134</v>
@@ -4366,13 +4376,13 @@
         <v>663</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E74" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F74" s="85" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G74" s="69" t="s">
         <v>129</v>
@@ -4387,7 +4397,7 @@
         <v>209</v>
       </c>
       <c r="K74" s="35" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L74" s="40"/>
       <c r="M74" s="40"/>
@@ -4413,7 +4423,7 @@
         <v>528</v>
       </c>
       <c r="F75" s="85" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G75" s="69" t="s">
         <v>243</v>
@@ -4450,7 +4460,7 @@
         <v>528</v>
       </c>
       <c r="F76" s="85" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G76" s="69" t="s">
         <v>227</v>
@@ -4481,13 +4491,13 @@
         <v>666</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E77" s="69" t="s">
         <v>528</v>
       </c>
       <c r="F77" s="85" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G77" s="69" t="s">
         <v>129</v>
@@ -4518,13 +4528,13 @@
         <v>667</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E78" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F78" s="85" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G78" s="90" t="s">
         <v>118</v>
@@ -4539,7 +4549,7 @@
         <v>209</v>
       </c>
       <c r="K78" s="35" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L78" s="40"/>
       <c r="M78" s="40"/>
@@ -4548,451 +4558,1314 @@
       <c r="P78" s="87"/>
       <c r="Q78" s="87"/>
     </row>
-    <row r="80" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="13" t="s">
+    <row r="79" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="56"/>
+      <c r="C79" s="74" t="s">
+        <v>542</v>
+      </c>
+      <c r="D79" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="E79" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F79" s="73" t="s">
+        <v>339</v>
+      </c>
+      <c r="G79" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="H79" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I79" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="J79" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K79" s="35"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="87"/>
+      <c r="O79" s="87"/>
+      <c r="P79" s="87"/>
+      <c r="Q79" s="87"/>
+    </row>
+    <row r="80" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="56"/>
+      <c r="C80" s="74" t="s">
+        <v>543</v>
+      </c>
+      <c r="D80" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="E80" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F80" s="73" t="s">
+        <v>346</v>
+      </c>
+      <c r="G80" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="H80" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I80" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="J80" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K80" s="35"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="87"/>
+      <c r="O80" s="87"/>
+      <c r="P80" s="87"/>
+      <c r="Q80" s="87"/>
+    </row>
+    <row r="81" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="56"/>
+      <c r="C81" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="D81" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="E81" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F81" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="G81" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="H81" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I81" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="J81" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K81" s="35"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="87"/>
+      <c r="O81" s="87"/>
+      <c r="P81" s="87"/>
+      <c r="Q81" s="87"/>
+    </row>
+    <row r="82" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="56"/>
+      <c r="C82" s="74" t="s">
+        <v>355</v>
+      </c>
+      <c r="D82" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="E82" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F82" s="73" t="s">
+        <v>358</v>
+      </c>
+      <c r="G82" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H82" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I82" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="J82" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K82" s="35"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="87"/>
+      <c r="O82" s="87"/>
+      <c r="P82" s="87"/>
+      <c r="Q82" s="87"/>
+    </row>
+    <row r="83" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="56"/>
+      <c r="C83" s="74" t="s">
+        <v>540</v>
+      </c>
+      <c r="D83" s="69" t="s">
+        <v>330</v>
+      </c>
+      <c r="E83" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F83" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="G83" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H83" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I83" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="J83" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K83" s="35"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="87"/>
+      <c r="O83" s="87"/>
+      <c r="P83" s="87"/>
+      <c r="Q83" s="87"/>
+    </row>
+    <row r="84" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="56"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="69"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="87"/>
+      <c r="O84" s="87"/>
+      <c r="P84" s="87"/>
+      <c r="Q84" s="87"/>
+    </row>
+    <row r="85" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="56"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="69"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="87"/>
+      <c r="O85" s="87"/>
+      <c r="P85" s="87"/>
+      <c r="Q85" s="87"/>
+    </row>
+    <row r="87" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="15"/>
-      <c r="K80" s="33" t="s">
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="15"/>
+      <c r="K87" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="N80" s="33" t="s">
+      <c r="N87" s="33" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C81" s="55" t="s">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C88" s="55" t="s">
         <v>467</v>
       </c>
-      <c r="K81" s="34"/>
-      <c r="L81" t="s">
+      <c r="K88" s="34"/>
+      <c r="L88" t="s">
         <v>468</v>
       </c>
-      <c r="M81" s="49"/>
-      <c r="N81" t="s">
+      <c r="M88" s="49"/>
+      <c r="N88" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C82" s="66" t="s">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C89" s="66" t="s">
         <v>470</v>
       </c>
-      <c r="D82" s="69" t="s">
+      <c r="D89" s="69" t="s">
         <v>471</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E89" t="s">
         <v>472</v>
       </c>
-      <c r="K82" s="35"/>
-      <c r="L82" t="s">
+      <c r="K89" s="35"/>
+      <c r="L89" t="s">
         <v>473</v>
       </c>
-      <c r="M82" s="51"/>
-      <c r="N82" t="s">
+      <c r="M89" s="51"/>
+      <c r="N89" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C83" s="66" t="s">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C90" s="66" t="s">
         <v>475</v>
-      </c>
-      <c r="D83" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="E83" t="s">
-        <v>476</v>
-      </c>
-      <c r="F83" t="s">
-        <v>477</v>
-      </c>
-      <c r="G83" t="s">
-        <v>476</v>
-      </c>
-      <c r="H83" t="s">
-        <v>476</v>
-      </c>
-      <c r="I83" s="21"/>
-      <c r="K83" s="42"/>
-      <c r="L83" t="s">
-        <v>478</v>
-      </c>
-      <c r="M83" s="52"/>
-      <c r="N83" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C84" s="66" t="s">
-        <v>480</v>
-      </c>
-      <c r="D84" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="E84" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F84" t="s">
-        <v>477</v>
-      </c>
-      <c r="G84" t="s">
-        <v>476</v>
-      </c>
-      <c r="H84" t="s">
-        <v>476</v>
-      </c>
-      <c r="K84" s="36"/>
-      <c r="L84" t="s">
-        <v>481</v>
-      </c>
-      <c r="M84" s="48"/>
-      <c r="N84" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>483</v>
-      </c>
-      <c r="C85" s="66" t="s">
-        <v>568</v>
-      </c>
-      <c r="D85" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="E85" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F85" t="s">
-        <v>477</v>
-      </c>
-      <c r="G85" t="s">
-        <v>477</v>
-      </c>
-      <c r="H85" t="s">
-        <v>477</v>
-      </c>
-      <c r="J85" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="M85" s="50"/>
-      <c r="N85" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>487</v>
-      </c>
-      <c r="C86" s="66" t="s">
-        <v>569</v>
-      </c>
-      <c r="D86" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="E86" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F86" t="s">
-        <v>477</v>
-      </c>
-      <c r="G86" t="s">
-        <v>477</v>
-      </c>
-      <c r="H86" t="s">
-        <v>477</v>
-      </c>
-      <c r="J86" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="K86" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C87" s="66" t="s">
-        <v>490</v>
-      </c>
-      <c r="D87" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F87" t="s">
-        <v>477</v>
-      </c>
-      <c r="G87" t="s">
-        <v>476</v>
-      </c>
-      <c r="H87" t="s">
-        <v>476</v>
-      </c>
-      <c r="J87" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="K87" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C88" s="66" t="s">
-        <v>492</v>
-      </c>
-      <c r="D88" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="E88" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F88" t="s">
-        <v>477</v>
-      </c>
-      <c r="G88" t="s">
-        <v>476</v>
-      </c>
-      <c r="H88" t="s">
-        <v>477</v>
-      </c>
-      <c r="J88" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="K88" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>494</v>
-      </c>
-      <c r="C89" s="66" t="s">
-        <v>495</v>
-      </c>
-      <c r="D89" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="E89" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F89" t="s">
-        <v>477</v>
-      </c>
-      <c r="G89" t="s">
-        <v>477</v>
-      </c>
-      <c r="H89" t="s">
-        <v>477</v>
-      </c>
-      <c r="J89" s="54" t="s">
-        <v>370</v>
-      </c>
-      <c r="K89" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>497</v>
-      </c>
-      <c r="C90" s="66" t="s">
-        <v>498</v>
       </c>
       <c r="D90" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="E90" s="38" t="s">
+      <c r="E90" t="s">
         <v>476</v>
       </c>
       <c r="F90" t="s">
         <v>477</v>
       </c>
       <c r="G90" t="s">
+        <v>476</v>
+      </c>
+      <c r="H90" t="s">
+        <v>476</v>
+      </c>
+      <c r="I90" s="21"/>
+      <c r="K90" s="42"/>
+      <c r="L90" t="s">
+        <v>478</v>
+      </c>
+      <c r="M90" s="52"/>
+      <c r="N90" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C91" s="66" t="s">
+        <v>480</v>
+      </c>
+      <c r="D91" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="H90" t="s">
+      <c r="E91" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F91" t="s">
         <v>477</v>
       </c>
-      <c r="J90" s="54"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C91" s="66" t="s">
+      <c r="G91" t="s">
+        <v>476</v>
+      </c>
+      <c r="H91" t="s">
+        <v>476</v>
+      </c>
+      <c r="K91" s="36"/>
+      <c r="L91" t="s">
+        <v>481</v>
+      </c>
+      <c r="M91" s="48"/>
+      <c r="N91" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>483</v>
+      </c>
+      <c r="C92" s="66" t="s">
+        <v>568</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F92" t="s">
+        <v>477</v>
+      </c>
+      <c r="G92" t="s">
+        <v>477</v>
+      </c>
+      <c r="H92" t="s">
+        <v>477</v>
+      </c>
+      <c r="J92" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="M92" s="50"/>
+      <c r="N92" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>487</v>
+      </c>
+      <c r="C93" s="66" t="s">
+        <v>569</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F93" t="s">
+        <v>477</v>
+      </c>
+      <c r="G93" t="s">
+        <v>477</v>
+      </c>
+      <c r="H93" t="s">
+        <v>477</v>
+      </c>
+      <c r="J93" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="K93" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C94" s="66" t="s">
+        <v>490</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="E94" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F94" t="s">
+        <v>477</v>
+      </c>
+      <c r="G94" t="s">
+        <v>476</v>
+      </c>
+      <c r="H94" t="s">
+        <v>476</v>
+      </c>
+      <c r="J94" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="K94" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C95" s="66" t="s">
+        <v>492</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="E95" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F95" t="s">
+        <v>477</v>
+      </c>
+      <c r="G95" t="s">
+        <v>476</v>
+      </c>
+      <c r="H95" t="s">
+        <v>477</v>
+      </c>
+      <c r="J95" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="K95" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>494</v>
+      </c>
+      <c r="C96" s="66" t="s">
+        <v>495</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="E96" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F96" t="s">
+        <v>477</v>
+      </c>
+      <c r="G96" t="s">
+        <v>477</v>
+      </c>
+      <c r="H96" t="s">
+        <v>477</v>
+      </c>
+      <c r="J96" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="K96" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>497</v>
+      </c>
+      <c r="C97" s="66" t="s">
+        <v>498</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="E97" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F97" t="s">
+        <v>477</v>
+      </c>
+      <c r="G97" t="s">
+        <v>477</v>
+      </c>
+      <c r="H97" t="s">
+        <v>477</v>
+      </c>
+      <c r="J97" s="54"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="D91" s="80" t="s">
-        <v>703</v>
-      </c>
-      <c r="E91" s="38" t="s">
+      <c r="D98" s="80" t="s">
+        <v>699</v>
+      </c>
+      <c r="E98" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="F91" s="38" t="s">
+      <c r="F98" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="G91" s="38" t="s">
+      <c r="G98" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="H91" s="38" t="s">
+      <c r="H98" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="I91" s="38" t="s">
+      <c r="I98" s="38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C92" s="66" t="s">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C99" s="66" t="s">
         <v>503</v>
       </c>
-      <c r="D92" s="80" t="s">
+      <c r="D99" s="80" t="s">
         <v>476</v>
       </c>
-      <c r="E92" s="38" t="s">
+      <c r="E99" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="F92" s="38"/>
-      <c r="J92" s="54"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C93" s="66" t="s">
+      <c r="F99" s="38"/>
+      <c r="J99" s="54"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C100" s="66" t="s">
         <v>570</v>
       </c>
-      <c r="D93" s="80" t="s">
+      <c r="D100" s="80" t="s">
         <v>476</v>
       </c>
-      <c r="E93" s="38" t="s">
+      <c r="E100" s="38" t="s">
         <v>571</v>
       </c>
-      <c r="F93" s="38"/>
-      <c r="J93" s="54"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B95" s="13" t="s">
+      <c r="F100" s="38"/>
+      <c r="J100" s="54"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="15"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C96" s="55" t="s">
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C103" s="55" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C97" s="69" t="s">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C104" s="69" t="s">
         <v>507</v>
       </c>
-      <c r="D97" s="65" t="s">
+      <c r="D104" s="65" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C98" s="69" t="s">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C105" s="69" t="s">
         <v>508</v>
       </c>
-      <c r="D98" s="65" t="s">
+      <c r="D105" s="65" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C99" s="69" t="s">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C106" s="69" t="s">
         <v>509</v>
       </c>
-      <c r="D99" s="65" t="s">
+      <c r="D106" s="65" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C100" s="69" t="s">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C107" s="69" t="s">
         <v>510</v>
       </c>
-      <c r="D100" s="65" t="s">
+      <c r="D107" s="65" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C101" s="69" t="s">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C108" s="69" t="s">
         <v>511</v>
       </c>
-      <c r="D101" s="65" t="s">
+      <c r="D108" s="65" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C102" s="69" t="s">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C109" s="69" t="s">
         <v>512</v>
       </c>
-      <c r="D102" s="65" t="s">
+      <c r="D109" s="65" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C103" s="80" t="s">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C110" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="D103" s="81">
+      <c r="D110" s="81">
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C104" s="80" t="s">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C111" s="80" t="s">
         <v>514</v>
       </c>
-      <c r="D104" s="81">
+      <c r="D111" s="81">
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C105" s="80" t="s">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C112" s="80" t="s">
         <v>515</v>
       </c>
-      <c r="D105" s="81">
+      <c r="D112" s="81">
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C106" s="80" t="s">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C113" s="80" t="s">
         <v>516</v>
       </c>
-      <c r="D106" s="81">
+      <c r="D113" s="81">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C107" s="80" t="s">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C114" s="80" t="s">
         <v>517</v>
       </c>
-      <c r="D107" s="81">
+      <c r="D114" s="81">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C108" s="80" t="s">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C115" s="80" t="s">
         <v>518</v>
       </c>
-      <c r="D108" s="81">
+      <c r="D115" s="81">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B110" s="13" t="s">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B117" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="15"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="15"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C125" s="74" t="s">
+        <v>361</v>
+      </c>
+      <c r="D125" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="E125" s="75" t="s">
+        <v>526</v>
+      </c>
+      <c r="F125" s="73" t="s">
+        <v>364</v>
+      </c>
+      <c r="G125" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H125" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I125" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="J125" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C126" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="D126" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="E126" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F126" s="73" t="s">
+        <v>339</v>
+      </c>
+      <c r="G126" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="H126" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I126" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="J126" s="38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C127" s="74" t="s">
+        <v>545</v>
+      </c>
+      <c r="D127" s="69" t="s">
+        <v>375</v>
+      </c>
+      <c r="E127" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F127" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="G127" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H127" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I127" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="J127" s="38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C128" s="74" t="s">
+        <v>546</v>
+      </c>
+      <c r="D128" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="E128" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F128" s="73" t="s">
+        <v>383</v>
+      </c>
+      <c r="G128" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H128" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I128" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="J128" s="38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C129" s="74" t="s">
+        <v>547</v>
+      </c>
+      <c r="D129" s="69" t="s">
+        <v>548</v>
+      </c>
+      <c r="E129" s="69" t="s">
+        <v>528</v>
+      </c>
+      <c r="F129" s="73" t="s">
+        <v>549</v>
+      </c>
+      <c r="G129" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H129" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I129" s="41" t="s">
+        <v>550</v>
+      </c>
+      <c r="J129" s="38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="130" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C130" s="74" t="s">
+        <v>552</v>
+      </c>
+      <c r="D130" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="E130" s="69" t="s">
+        <v>533</v>
+      </c>
+      <c r="F130" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="G130" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H130" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I130" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="J130" s="38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C131" s="74" t="s">
+        <v>553</v>
+      </c>
+      <c r="D131" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="E131" s="69" t="s">
+        <v>528</v>
+      </c>
+      <c r="F131" s="73" t="s">
+        <v>554</v>
+      </c>
+      <c r="G131" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="H131" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I131" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="J131" s="38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C132" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="D132" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="E132" s="69" t="s">
+        <v>528</v>
+      </c>
+      <c r="F132" s="73" t="s">
+        <v>396</v>
+      </c>
+      <c r="G132" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H132" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I132" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="J132" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="133" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C133" s="74" t="s">
+        <v>556</v>
+      </c>
+      <c r="D133" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="E133" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F133" s="73" t="s">
+        <v>403</v>
+      </c>
+      <c r="G133" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="H133" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I133" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="J133" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="134" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C134" s="74" t="s">
+        <v>557</v>
+      </c>
+      <c r="D134" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="E134" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F134" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G134" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H134" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I134" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="J134" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C135" s="74" t="s">
+        <v>558</v>
+      </c>
+      <c r="D135" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E135" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F135" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="G135" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="H135" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I135" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="J135" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="136" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C136" s="74" t="s">
+        <v>559</v>
+      </c>
+      <c r="D136" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="E136" s="75" t="s">
+        <v>526</v>
+      </c>
+      <c r="F136" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="G136" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="H136" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I136" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="J136" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="137" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C137" s="74" t="s">
+        <v>425</v>
+      </c>
+      <c r="D137" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="E137" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F137" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="G137" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H137" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I137" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="J137" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C138" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="D138" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="E138" s="75" t="s">
+        <v>533</v>
+      </c>
+      <c r="F138" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="G138" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H138" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I138" s="41" t="s">
+        <v>560</v>
+      </c>
+      <c r="J138" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="139" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C139" s="74" t="s">
+        <v>438</v>
+      </c>
+      <c r="D139" s="69" t="s">
+        <v>439</v>
+      </c>
+      <c r="E139" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F139" s="73" t="s">
+        <v>441</v>
+      </c>
+      <c r="G139" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H139" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I139" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="J139" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="140" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C140" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="D140" s="69" t="s">
+        <v>444</v>
+      </c>
+      <c r="E140" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F140" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="G140" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H140" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I140" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="J140" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="141" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C141" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="D141" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="E141" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F141" s="73" t="s">
+        <v>451</v>
+      </c>
+      <c r="G141" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H141" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I141" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="J141" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="142" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C142" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="D142" s="79" t="s">
+        <v>454</v>
+      </c>
+      <c r="E142" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F142" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G142" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H142" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I142" s="63" t="s">
+        <v>561</v>
+      </c>
+      <c r="J142" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C143" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="D143" s="79" t="s">
+        <v>458</v>
+      </c>
+      <c r="E143" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F143" s="73" t="s">
+        <v>451</v>
+      </c>
+      <c r="G143" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H143" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I143" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="J143" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="144" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C144" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="D144" s="79" t="s">
+        <v>462</v>
+      </c>
+      <c r="E144" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F144" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G144" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H144" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I144" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="J144" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C145" s="74" t="s">
+        <v>562</v>
+      </c>
+      <c r="D145" s="79" t="s">
+        <v>563</v>
+      </c>
+      <c r="E145" s="75" t="s">
+        <v>526</v>
+      </c>
+      <c r="F145" s="73" t="s">
+        <v>564</v>
+      </c>
+      <c r="G145" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H145" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I145" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="J145" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="146" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C146" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="D146" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="E146" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F146" s="73" t="s">
+        <v>451</v>
+      </c>
+      <c r="G146" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H146" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I146" s="41" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="147" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C147" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="D147" s="79" t="s">
+        <v>454</v>
+      </c>
+      <c r="E147" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F147" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G147" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H147" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I147" s="63" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="148" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C148" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="D148" s="79" t="s">
+        <v>458</v>
+      </c>
+      <c r="E148" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F148" s="73" t="s">
+        <v>451</v>
+      </c>
+      <c r="G148" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H148" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I148" s="41" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="149" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C149" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="D149" s="79" t="s">
+        <v>462</v>
+      </c>
+      <c r="E149" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F149" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G149" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H149" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I149" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="150" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C150" s="74" t="s">
+        <v>562</v>
+      </c>
+      <c r="D150" s="79" t="s">
+        <v>563</v>
+      </c>
+      <c r="E150" s="75" t="s">
+        <v>526</v>
+      </c>
+      <c r="F150" s="73" t="s">
+        <v>564</v>
+      </c>
+      <c r="G150" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H150" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I150" s="41" t="s">
+        <v>565</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="24" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5000,8 +5873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="C64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8310,8 +9183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11620,8 +12493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView topLeftCell="C92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView topLeftCell="C80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79:J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14930,7 +15803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C104" workbookViewId="0">
+    <sheetView topLeftCell="C104" workbookViewId="0">
       <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
@@ -18064,7 +18937,7 @@
         <v>499</v>
       </c>
       <c r="D117" s="80" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E117" s="38" t="s">
         <v>500</v>
@@ -18240,8 +19113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44597,8 +45470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45825,7 +46698,7 @@
         <v>662</v>
       </c>
       <c r="D73" s="69" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E73" s="69" t="s">
         <v>528</v>
@@ -45858,7 +46731,7 @@
         <v>663</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E74" s="75" t="s">
         <v>528</v>
@@ -45953,7 +46826,7 @@
         <v>666</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E77" s="69" t="s">
         <v>528</v>
@@ -45983,7 +46856,7 @@
         <v>667</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E78" s="75" t="s">
         <v>528</v>

--- a/RECC_Config_V2_0.xlsx
+++ b/RECC_Config_V2_0.xlsx
@@ -3087,8 +3087,8 @@
   </sheetPr>
   <dimension ref="A2:Q150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/RECC_Config_V2_0.xlsx
+++ b/RECC_Config_V2_0.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11850" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11833" uniqueCount="707">
   <si>
     <t>User Name</t>
   </si>
@@ -2075,9 +2075,6 @@
     <t>[]</t>
   </si>
   <si>
-    <t>[72:89)</t>
-  </si>
-  <si>
     <t>Sector_industry</t>
   </si>
   <si>
@@ -2102,12 +2099,6 @@
     <t>change commodity in .py translator file</t>
   </si>
   <si>
-    <t>lSRgt</t>
-  </si>
-  <si>
-    <t>og</t>
-  </si>
-  <si>
     <t>lifetime of industry products in use phase</t>
   </si>
   <si>
@@ -2120,18 +2111,6 @@
     <t>material composition of appliances in the use phase</t>
   </si>
   <si>
-    <t>otcSRg</t>
-  </si>
-  <si>
-    <t>otSRg</t>
-  </si>
-  <si>
-    <t>ogm</t>
-  </si>
-  <si>
-    <t>gm</t>
-  </si>
-  <si>
     <t>ind, app</t>
   </si>
   <si>
@@ -2141,9 +2120,6 @@
     <t>Test for ind and app ODYM-RECC Model setup</t>
   </si>
   <si>
-    <t>lSRgtc</t>
-  </si>
-  <si>
     <t>[1,2]</t>
   </si>
   <si>
@@ -2151,6 +2127,33 @@
   </si>
   <si>
     <t>[0:17)</t>
+  </si>
+  <si>
+    <t>1_F_RECC_FinalProducts_industry</t>
+  </si>
+  <si>
+    <t>future and past inflow in use</t>
+  </si>
+  <si>
+    <t>###Changed for ind from 315 to 200</t>
+  </si>
+  <si>
+    <t>1_F_RECC_FinalProducts_appliances</t>
+  </si>
+  <si>
+    <t>[72:101)</t>
+  </si>
+  <si>
+    <t>lSRIt</t>
+  </si>
+  <si>
+    <t>Im</t>
+  </si>
+  <si>
+    <t>otSRa</t>
+  </si>
+  <si>
+    <t>oam</t>
   </si>
 </sst>
 </file>
@@ -3087,8 +3090,8 @@
   </sheetPr>
   <dimension ref="A2:Q150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3143,7 +3146,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -3260,7 +3263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="68" t="s">
         <v>33</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="69" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H17" s="70" t="s">
         <v>36</v>
@@ -3282,8 +3285,11 @@
       <c r="I17" s="69" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="69" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="68" t="s">
         <v>38</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C19" s="68" t="s">
         <v>43</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C20" s="68" t="s">
         <v>49</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C21" s="68" t="s">
         <v>608</v>
       </c>
@@ -3375,7 +3381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="3:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="68" t="s">
         <v>609</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="23" spans="3:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="68" t="s">
         <v>610</v>
       </c>
@@ -3421,7 +3427,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="24" spans="3:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="68" t="s">
         <v>611</v>
       </c>
@@ -3444,7 +3450,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C25" s="68" t="s">
         <v>60</v>
       </c>
@@ -3467,7 +3473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="68" t="s">
         <v>84</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C27" s="68" t="s">
         <v>67</v>
       </c>
@@ -3513,7 +3519,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C28" s="68" t="s">
         <v>620</v>
       </c>
@@ -3527,7 +3533,7 @@
         <v>620</v>
       </c>
       <c r="G28" s="69" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="H28" s="70" t="s">
         <v>140</v>
@@ -3536,7 +3542,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C29" s="68" t="s">
         <v>91</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>93</v>
       </c>
       <c r="G29" s="69" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="H29" s="70" t="s">
         <v>94</v>
@@ -3559,7 +3565,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="3:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="68" t="s">
         <v>623</v>
       </c>
@@ -3570,10 +3576,10 @@
         <v>637</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G30" s="69" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="H30" s="70" t="s">
         <v>647</v>
@@ -3582,7 +3588,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="31" spans="3:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="68" t="s">
         <v>630</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>637</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G31" s="69" t="s">
         <v>679</v>
@@ -3605,7 +3611,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="32" spans="3:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="68" t="s">
         <v>624</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>637</v>
       </c>
       <c r="F32" s="69" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G32" s="69" t="s">
         <v>679</v>
@@ -3639,7 +3645,7 @@
         <v>637</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G33" s="69" t="s">
         <v>679</v>
@@ -3662,7 +3668,7 @@
         <v>637</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G34" s="69" t="s">
         <v>679</v>
@@ -3685,10 +3691,10 @@
         <v>637</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G35" s="69" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="H35" s="70" t="s">
         <v>653</v>
@@ -3709,16 +3715,16 @@
         <v>637</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G36" s="69" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="H36" s="70" t="s">
         <v>655</v>
       </c>
       <c r="I36" s="69" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="K36"/>
     </row>
@@ -4256,16 +4262,16 @@
         <v>167</v>
       </c>
       <c r="C71" s="83" t="s">
-        <v>661</v>
+        <v>698</v>
       </c>
       <c r="D71" s="69" t="s">
-        <v>215</v>
+        <v>699</v>
       </c>
       <c r="E71" s="69" t="s">
         <v>528</v>
       </c>
       <c r="F71" s="85" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>243</v>
@@ -4294,28 +4300,28 @@
       <c r="B72" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C72" s="83" t="s">
-        <v>660</v>
+      <c r="C72" s="84" t="s">
+        <v>662</v>
       </c>
       <c r="D72" s="69" t="s">
-        <v>205</v>
+        <v>688</v>
       </c>
       <c r="E72" s="69" t="s">
         <v>528</v>
       </c>
       <c r="F72" s="85" t="s">
-        <v>702</v>
+        <v>653</v>
       </c>
       <c r="G72" s="69" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="H72" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I72" t="s">
-        <v>671</v>
-      </c>
-      <c r="J72" t="s">
+      <c r="I72" s="63" t="s">
+        <v>672</v>
+      </c>
+      <c r="J72" s="41" t="s">
         <v>209</v>
       </c>
       <c r="K72" s="89"/>
@@ -4330,35 +4336,37 @@
       <c r="A73">
         <v>2</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="56" t="s">
         <v>167</v>
       </c>
       <c r="C73" s="84" t="s">
-        <v>662</v>
-      </c>
-      <c r="D73" s="69" t="s">
-        <v>691</v>
-      </c>
-      <c r="E73" s="69" t="s">
+        <v>663</v>
+      </c>
+      <c r="D73" s="91" t="s">
+        <v>690</v>
+      </c>
+      <c r="E73" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F73" s="85" t="s">
-        <v>94</v>
+        <v>704</v>
       </c>
       <c r="G73" s="69" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H73" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I73" s="63" t="s">
-        <v>672</v>
+      <c r="I73" t="s">
+        <v>673</v>
       </c>
       <c r="J73" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="K73" s="89"/>
-      <c r="L73"/>
+      <c r="K73" s="35" t="s">
+        <v>687</v>
+      </c>
+      <c r="L73" s="40"/>
       <c r="M73"/>
       <c r="N73" s="86"/>
       <c r="O73" s="86"/>
@@ -4369,37 +4377,34 @@
       <c r="A74">
         <v>3</v>
       </c>
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="84" t="s">
-        <v>663</v>
-      </c>
-      <c r="D74" s="91" t="s">
-        <v>693</v>
-      </c>
-      <c r="E74" s="75" t="s">
+      <c r="C74" s="83" t="s">
+        <v>701</v>
+      </c>
+      <c r="D74" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74" s="69" t="s">
         <v>528</v>
       </c>
       <c r="F74" s="85" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="G74" s="69" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="H74" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I74" t="s">
-        <v>673</v>
+      <c r="I74" s="41" t="s">
+        <v>674</v>
       </c>
       <c r="J74" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="K74" s="35" t="s">
-        <v>688</v>
-      </c>
-      <c r="L74" s="40"/>
+      <c r="K74" s="36"/>
       <c r="M74" s="40"/>
       <c r="N74" s="87"/>
       <c r="O74" s="87"/>
@@ -4413,26 +4418,26 @@
       <c r="B75" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C75" s="83" t="s">
-        <v>664</v>
+      <c r="C75" s="84" t="s">
+        <v>666</v>
       </c>
       <c r="D75" s="69" t="s">
-        <v>215</v>
+        <v>689</v>
       </c>
       <c r="E75" s="69" t="s">
         <v>528</v>
       </c>
       <c r="F75" s="85" t="s">
-        <v>696</v>
+        <v>655</v>
       </c>
       <c r="G75" s="69" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="H75" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I75" s="41" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="J75" s="41" t="s">
         <v>209</v>
@@ -4447,34 +4452,37 @@
       <c r="A76" s="41">
         <v>5</v>
       </c>
-      <c r="B76" s="54" t="s">
+      <c r="B76" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="C76" s="83" t="s">
-        <v>665</v>
-      </c>
-      <c r="D76" s="69" t="s">
-        <v>205</v>
+      <c r="C76" s="84" t="s">
+        <v>667</v>
+      </c>
+      <c r="D76" s="91" t="s">
+        <v>691</v>
       </c>
       <c r="E76" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F76" s="85" t="s">
-        <v>695</v>
-      </c>
-      <c r="G76" s="69" t="s">
-        <v>227</v>
+        <v>706</v>
+      </c>
+      <c r="G76" s="90" t="s">
+        <v>118</v>
       </c>
       <c r="H76" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I76" s="41" t="s">
-        <v>675</v>
-      </c>
-      <c r="J76" s="41" t="s">
+      <c r="I76" s="88" t="s">
+        <v>669</v>
+      </c>
+      <c r="J76" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="K76" s="36"/>
+      <c r="K76" s="35" t="s">
+        <v>687</v>
+      </c>
+      <c r="L76" s="40"/>
       <c r="N76" s="86"/>
       <c r="O76" s="86"/>
       <c r="P76" s="86"/>
@@ -4484,34 +4492,31 @@
       <c r="A77" s="41">
         <v>6</v>
       </c>
-      <c r="B77" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="84" t="s">
-        <v>666</v>
+      <c r="C77" s="74" t="s">
+        <v>542</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>692</v>
+        <v>337</v>
       </c>
       <c r="E77" s="69" t="s">
-        <v>528</v>
-      </c>
-      <c r="F77" s="85" t="s">
-        <v>690</v>
+        <v>526</v>
+      </c>
+      <c r="F77" s="73" t="s">
+        <v>339</v>
       </c>
       <c r="G77" s="69" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="H77" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>676</v>
+        <v>340</v>
       </c>
       <c r="J77" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="K77" s="36"/>
+      <c r="K77" s="35"/>
       <c r="N77" s="86"/>
       <c r="O77" s="86"/>
       <c r="P77" s="86"/>
@@ -4521,37 +4526,31 @@
       <c r="A78" s="41">
         <v>7</v>
       </c>
-      <c r="B78" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" s="84" t="s">
-        <v>667</v>
-      </c>
-      <c r="D78" s="91" t="s">
-        <v>694</v>
-      </c>
-      <c r="E78" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F78" s="85" t="s">
-        <v>697</v>
-      </c>
-      <c r="G78" s="90" t="s">
-        <v>118</v>
+      <c r="C78" s="74" t="s">
+        <v>543</v>
+      </c>
+      <c r="D78" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="E78" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F78" s="73" t="s">
+        <v>346</v>
+      </c>
+      <c r="G78" s="69" t="s">
+        <v>227</v>
       </c>
       <c r="H78" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I78" s="88" t="s">
-        <v>669</v>
-      </c>
-      <c r="J78" s="40" t="s">
+      <c r="I78" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="J78" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="K78" s="35" t="s">
-        <v>688</v>
-      </c>
-      <c r="L78" s="40"/>
+      <c r="K78" s="35"/>
       <c r="M78" s="40"/>
       <c r="N78" s="87"/>
       <c r="O78" s="87"/>
@@ -4561,25 +4560,25 @@
     <row r="79" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="56"/>
       <c r="C79" s="74" t="s">
-        <v>542</v>
+        <v>349</v>
       </c>
       <c r="D79" s="69" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="E79" s="69" t="s">
         <v>526</v>
       </c>
       <c r="F79" s="73" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="G79" s="69" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="H79" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="J79" s="41" t="s">
         <v>209</v>
@@ -4595,25 +4594,25 @@
     <row r="80" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="56"/>
       <c r="C80" s="74" t="s">
-        <v>543</v>
+        <v>355</v>
       </c>
       <c r="D80" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="E80" s="69" t="s">
-        <v>526</v>
+        <v>356</v>
+      </c>
+      <c r="E80" s="75" t="s">
+        <v>528</v>
       </c>
       <c r="F80" s="73" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="G80" s="69" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="H80" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I80" s="41" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="J80" s="41" t="s">
         <v>209</v>
@@ -4629,25 +4628,25 @@
     <row r="81" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="56"/>
       <c r="C81" s="74" t="s">
-        <v>349</v>
+        <v>540</v>
       </c>
       <c r="D81" s="69" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="E81" s="69" t="s">
         <v>526</v>
       </c>
       <c r="F81" s="73" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="G81" s="69" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="H81" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>353</v>
+        <v>541</v>
       </c>
       <c r="J81" s="41" t="s">
         <v>209</v>
@@ -4662,31 +4661,6 @@
     </row>
     <row r="82" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="56"/>
-      <c r="C82" s="74" t="s">
-        <v>355</v>
-      </c>
-      <c r="D82" s="69" t="s">
-        <v>356</v>
-      </c>
-      <c r="E82" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F82" s="73" t="s">
-        <v>358</v>
-      </c>
-      <c r="G82" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H82" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I82" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="J82" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="K82" s="35"/>
       <c r="L82" s="40"/>
       <c r="M82" s="40"/>
       <c r="N82" s="87"/>
@@ -4696,31 +4670,6 @@
     </row>
     <row r="83" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="56"/>
-      <c r="C83" s="74" t="s">
-        <v>540</v>
-      </c>
-      <c r="D83" s="69" t="s">
-        <v>330</v>
-      </c>
-      <c r="E83" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F83" s="73" t="s">
-        <v>332</v>
-      </c>
-      <c r="G83" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H83" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I83" s="41" t="s">
-        <v>541</v>
-      </c>
-      <c r="J83" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="K83" s="35"/>
       <c r="L83" s="40"/>
       <c r="M83" s="40"/>
       <c r="N83" s="87"/>
@@ -5035,7 +4984,7 @@
         <v>499</v>
       </c>
       <c r="D98" s="80" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E98" s="38" t="s">
         <v>500</v>
@@ -18937,7 +18886,7 @@
         <v>499</v>
       </c>
       <c r="D117" s="80" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E117" s="38" t="s">
         <v>500</v>
@@ -46698,7 +46647,7 @@
         <v>662</v>
       </c>
       <c r="D73" s="69" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E73" s="69" t="s">
         <v>528</v>
@@ -46731,7 +46680,7 @@
         <v>663</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E74" s="75" t="s">
         <v>528</v>
@@ -46826,7 +46775,7 @@
         <v>666</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E77" s="69" t="s">
         <v>528</v>
@@ -46856,7 +46805,7 @@
         <v>667</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E78" s="75" t="s">
         <v>528</v>

--- a/RECC_Config_V2_0.xlsx
+++ b/RECC_Config_V2_0.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11833" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11865" uniqueCount="717">
   <si>
     <t>User Name</t>
   </si>
@@ -2154,6 +2154,36 @@
   </si>
   <si>
     <t>oam</t>
+  </si>
+  <si>
+    <t>[0,1,5,7,8,11,14,20]</t>
+  </si>
+  <si>
+    <t>mwgFto</t>
+  </si>
+  <si>
+    <t>V2.1</t>
+  </si>
+  <si>
+    <t>V3.1</t>
+  </si>
+  <si>
+    <t>mgo</t>
+  </si>
+  <si>
+    <t>6_PR_ReUse</t>
+  </si>
+  <si>
+    <t>Fnco</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>gomwW</t>
+  </si>
+  <si>
+    <t>[18:27)</t>
   </si>
 </sst>
 </file>
@@ -2275,7 +2305,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2357,6 +2387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2464,7 +2500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2622,6 +2658,8 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3088,10 +3126,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Q150"/>
+  <dimension ref="A2:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3742,7 +3780,7 @@
         <v>80</v>
       </c>
       <c r="G37" s="69" t="s">
-        <v>81</v>
+        <v>716</v>
       </c>
       <c r="H37" s="70" t="s">
         <v>82</v>
@@ -3766,7 +3804,7 @@
         <v>104</v>
       </c>
       <c r="G38" s="69" t="s">
-        <v>105</v>
+        <v>707</v>
       </c>
       <c r="H38" s="70" t="s">
         <v>106</v>
@@ -4492,6 +4530,7 @@
       <c r="A77" s="41">
         <v>6</v>
       </c>
+      <c r="B77" s="94"/>
       <c r="C77" s="74" t="s">
         <v>542</v>
       </c>
@@ -4502,7 +4541,7 @@
         <v>526</v>
       </c>
       <c r="F77" s="73" t="s">
-        <v>339</v>
+        <v>715</v>
       </c>
       <c r="G77" s="69" t="s">
         <v>243</v>
@@ -4526,6 +4565,7 @@
       <c r="A78" s="41">
         <v>7</v>
       </c>
+      <c r="B78" s="94"/>
       <c r="C78" s="74" t="s">
         <v>543</v>
       </c>
@@ -4536,7 +4576,7 @@
         <v>526</v>
       </c>
       <c r="F78" s="73" t="s">
-        <v>346</v>
+        <v>708</v>
       </c>
       <c r="G78" s="69" t="s">
         <v>227</v>
@@ -4634,10 +4674,10 @@
         <v>330</v>
       </c>
       <c r="E81" s="69" t="s">
-        <v>526</v>
+        <v>709</v>
       </c>
       <c r="F81" s="73" t="s">
-        <v>332</v>
+        <v>713</v>
       </c>
       <c r="G81" s="69" t="s">
         <v>197</v>
@@ -4660,31 +4700,115 @@
       <c r="Q81" s="87"/>
     </row>
     <row r="82" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="56"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="87"/>
+      <c r="B82" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="D82" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="E82" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F82" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="G82" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I82" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="J82" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K82" s="36"/>
+      <c r="L82" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="M82" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="N82" s="49" t="s">
+        <v>274</v>
+      </c>
       <c r="O82" s="87"/>
       <c r="P82" s="87"/>
       <c r="Q82" s="87"/>
     </row>
     <row r="83" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="56"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="40"/>
-      <c r="N83" s="87"/>
+      <c r="B83" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C83" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="D83" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="E83" s="69" t="s">
+        <v>709</v>
+      </c>
+      <c r="F83" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="G83" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H83" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I83" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="J83" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K83" s="36"/>
+      <c r="L83" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="M83" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="N83" s="49" t="s">
+        <v>280</v>
+      </c>
       <c r="O83" s="87"/>
       <c r="P83" s="87"/>
       <c r="Q83" s="87"/>
     </row>
     <row r="84" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="56"/>
-      <c r="C84" s="92"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="69"/>
+      <c r="C84" s="93" t="s">
+        <v>712</v>
+      </c>
+      <c r="D84" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="E84" s="69" t="s">
+        <v>710</v>
+      </c>
+      <c r="F84" s="73" t="s">
+        <v>711</v>
+      </c>
+      <c r="G84" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H84" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I84" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="J84" s="38" t="s">
+        <v>370</v>
+      </c>
       <c r="K84" s="35"/>
       <c r="L84" s="40"/>
       <c r="M84" s="40"/>
@@ -4695,12 +4819,13 @@
     </row>
     <row r="85" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="56"/>
-      <c r="C85" s="92"/>
+      <c r="C85" s="93"/>
       <c r="D85" s="69"/>
       <c r="E85" s="69"/>
       <c r="F85" s="73"/>
       <c r="G85" s="69"/>
       <c r="H85" s="69"/>
+      <c r="J85" s="38"/>
       <c r="K85" s="35"/>
       <c r="L85" s="40"/>
       <c r="M85" s="40"/>
@@ -4709,92 +4834,79 @@
       <c r="P85" s="87"/>
       <c r="Q85" s="87"/>
     </row>
-    <row r="87" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="13" t="s">
+    <row r="86" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="56"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="69"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="87"/>
+      <c r="O86" s="87"/>
+      <c r="P86" s="87"/>
+      <c r="Q86" s="87"/>
+    </row>
+    <row r="88" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="15"/>
-      <c r="K87" s="33" t="s">
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="15"/>
+      <c r="K88" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="N87" s="33" t="s">
+      <c r="N88" s="33" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C88" s="55" t="s">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C89" s="55" t="s">
         <v>467</v>
       </c>
-      <c r="K88" s="34"/>
-      <c r="L88" t="s">
+      <c r="K89" s="34"/>
+      <c r="L89" t="s">
         <v>468</v>
       </c>
-      <c r="M88" s="49"/>
-      <c r="N88" t="s">
+      <c r="M89" s="49"/>
+      <c r="N89" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C89" s="66" t="s">
-        <v>470</v>
-      </c>
-      <c r="D89" s="69" t="s">
-        <v>471</v>
-      </c>
-      <c r="E89" t="s">
-        <v>472</v>
-      </c>
-      <c r="K89" s="35"/>
-      <c r="L89" t="s">
-        <v>473</v>
-      </c>
-      <c r="M89" s="51"/>
-      <c r="N89" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C90" s="66" t="s">
-        <v>475</v>
-      </c>
-      <c r="D90" s="41" t="s">
-        <v>477</v>
+        <v>470</v>
+      </c>
+      <c r="D90" s="69" t="s">
+        <v>471</v>
       </c>
       <c r="E90" t="s">
-        <v>476</v>
-      </c>
-      <c r="F90" t="s">
-        <v>477</v>
-      </c>
-      <c r="G90" t="s">
-        <v>476</v>
-      </c>
-      <c r="H90" t="s">
-        <v>476</v>
-      </c>
-      <c r="I90" s="21"/>
-      <c r="K90" s="42"/>
+        <v>472</v>
+      </c>
+      <c r="K90" s="35"/>
       <c r="L90" t="s">
-        <v>478</v>
-      </c>
-      <c r="M90" s="52"/>
+        <v>473</v>
+      </c>
+      <c r="M90" s="51"/>
       <c r="N90" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C91" s="66" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D91" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="E91" s="38" t="s">
+      <c r="E91" t="s">
         <v>476</v>
       </c>
       <c r="F91" t="s">
@@ -4806,21 +4918,19 @@
       <c r="H91" t="s">
         <v>476</v>
       </c>
-      <c r="K91" s="36"/>
+      <c r="I91" s="21"/>
+      <c r="K91" s="42"/>
       <c r="L91" t="s">
-        <v>481</v>
-      </c>
-      <c r="M91" s="48"/>
+        <v>478</v>
+      </c>
+      <c r="M91" s="52"/>
       <c r="N91" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="92" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>483</v>
-      </c>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C92" s="66" t="s">
-        <v>568</v>
+        <v>480</v>
       </c>
       <c r="D92" s="41" t="s">
         <v>477</v>
@@ -4832,25 +4942,26 @@
         <v>477</v>
       </c>
       <c r="G92" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H92" t="s">
-        <v>477</v>
-      </c>
-      <c r="J92" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="M92" s="50"/>
+        <v>476</v>
+      </c>
+      <c r="K92" s="36"/>
+      <c r="L92" t="s">
+        <v>481</v>
+      </c>
+      <c r="M92" s="48"/>
       <c r="N92" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C93" s="66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D93" s="41" t="s">
         <v>477</v>
@@ -4867,16 +4978,20 @@
       <c r="H93" t="s">
         <v>477</v>
       </c>
-      <c r="J93" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="K93" t="s">
-        <v>489</v>
+      <c r="J93" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="M93" s="50"/>
+      <c r="N93" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>487</v>
+      </c>
       <c r="C94" s="66" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="D94" s="41" t="s">
         <v>477</v>
@@ -4888,21 +5003,21 @@
         <v>477</v>
       </c>
       <c r="G94" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H94" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J94" s="54" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="K94" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C95" s="66" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D95" s="41" t="s">
         <v>477</v>
@@ -4917,21 +5032,18 @@
         <v>476</v>
       </c>
       <c r="H95" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J95" s="54" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="K95" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>494</v>
-      </c>
       <c r="C96" s="66" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D96" s="41" t="s">
         <v>477</v>
@@ -4943,24 +5055,24 @@
         <v>477</v>
       </c>
       <c r="G96" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H96" t="s">
         <v>477</v>
       </c>
       <c r="J96" s="54" t="s">
-        <v>370</v>
+        <v>209</v>
       </c>
       <c r="K96" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C97" s="66" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D97" s="41" t="s">
         <v>477</v>
@@ -4977,156 +5089,177 @@
       <c r="H97" t="s">
         <v>477</v>
       </c>
-      <c r="J97" s="54"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J97" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="K97" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>497</v>
+      </c>
       <c r="C98" s="66" t="s">
+        <v>498</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="E98" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F98" t="s">
+        <v>477</v>
+      </c>
+      <c r="G98" t="s">
+        <v>477</v>
+      </c>
+      <c r="H98" t="s">
+        <v>477</v>
+      </c>
+      <c r="J98" s="54"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C99" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="D98" s="80" t="s">
-        <v>692</v>
-      </c>
-      <c r="E98" s="38" t="s">
+      <c r="D99" s="80" t="s">
+        <v>714</v>
+      </c>
+      <c r="E99" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="F98" s="38" t="s">
+      <c r="F99" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="38" t="s">
+      <c r="G99" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="H98" s="38" t="s">
+      <c r="H99" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="I98" s="38" t="s">
+      <c r="I99" s="38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C99" s="66" t="s">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C100" s="66" t="s">
         <v>503</v>
-      </c>
-      <c r="D99" s="80" t="s">
-        <v>476</v>
-      </c>
-      <c r="E99" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="F99" s="38"/>
-      <c r="J99" s="54"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C100" s="66" t="s">
-        <v>570</v>
       </c>
       <c r="D100" s="80" t="s">
         <v>476</v>
       </c>
       <c r="E100" s="38" t="s">
-        <v>571</v>
+        <v>504</v>
       </c>
       <c r="F100" s="38"/>
       <c r="J100" s="54"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B102" s="13" t="s">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C101" s="66" t="s">
+        <v>570</v>
+      </c>
+      <c r="D101" s="80" t="s">
+        <v>476</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="F101" s="38"/>
+      <c r="J101" s="54"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="15"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C103" s="55" t="s">
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C104" s="55" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C104" s="69" t="s">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C105" s="69" t="s">
         <v>507</v>
-      </c>
-      <c r="D104" s="65" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C105" s="69" t="s">
-        <v>508</v>
       </c>
       <c r="D105" s="65" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C106" s="69" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D106" s="65" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C107" s="69" t="s">
+        <v>509</v>
+      </c>
+      <c r="D107" s="65" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C108" s="69" t="s">
         <v>510</v>
-      </c>
-      <c r="D107" s="65" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C108" s="69" t="s">
-        <v>511</v>
       </c>
       <c r="D108" s="65" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C109" s="69" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D109" s="65" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C110" s="80" t="s">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C110" s="69" t="s">
+        <v>512</v>
+      </c>
+      <c r="D110" s="65" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C111" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="D110" s="81">
+      <c r="D111" s="81">
         <v>400</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C111" s="80" t="s">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C112" s="80" t="s">
         <v>514</v>
       </c>
-      <c r="D111" s="81">
+      <c r="D112" s="81">
         <v>200</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C112" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D112" s="81">
-        <v>100</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C113" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D113" s="81">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C114" s="80" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D114" s="81">
         <v>0</v>
@@ -5134,96 +5267,78 @@
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C115" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D115" s="81">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B117" s="13" t="s">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C116" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="D116" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B118" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="15"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C125" s="74" t="s">
-        <v>361</v>
-      </c>
-      <c r="D125" s="69" t="s">
-        <v>362</v>
-      </c>
-      <c r="E125" s="75" t="s">
-        <v>526</v>
-      </c>
-      <c r="F125" s="73" t="s">
-        <v>364</v>
-      </c>
-      <c r="G125" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H125" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I125" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="J125" s="41" t="s">
-        <v>209</v>
-      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="15"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C126" s="74" t="s">
-        <v>544</v>
+        <v>361</v>
       </c>
       <c r="D126" s="69" t="s">
-        <v>367</v>
-      </c>
-      <c r="E126" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="E126" s="75" t="s">
         <v>526</v>
       </c>
       <c r="F126" s="73" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="G126" s="69" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="H126" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I126" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="J126" s="38" t="s">
-        <v>370</v>
+        <v>365</v>
+      </c>
+      <c r="J126" s="41" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C127" s="74" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D127" s="69" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E127" s="69" t="s">
         <v>526</v>
       </c>
       <c r="F127" s="73" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="G127" s="69" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="H127" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I127" s="41" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="J127" s="38" t="s">
         <v>370</v>
@@ -5231,25 +5346,25 @@
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C128" s="74" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D128" s="69" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E128" s="69" t="s">
         <v>526</v>
       </c>
       <c r="F128" s="73" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G128" s="69" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="H128" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I128" s="41" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="J128" s="38" t="s">
         <v>370</v>
@@ -5257,16 +5372,16 @@
     </row>
     <row r="129" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C129" s="74" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D129" s="69" t="s">
-        <v>548</v>
+        <v>381</v>
       </c>
       <c r="E129" s="69" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F129" s="73" t="s">
-        <v>549</v>
+        <v>383</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>197</v>
@@ -5275,7 +5390,7 @@
         <v>134</v>
       </c>
       <c r="I129" s="41" t="s">
-        <v>550</v>
+        <v>384</v>
       </c>
       <c r="J129" s="38" t="s">
         <v>370</v>
@@ -5283,25 +5398,25 @@
     </row>
     <row r="130" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C130" s="74" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D130" s="69" t="s">
-        <v>387</v>
+        <v>548</v>
       </c>
       <c r="E130" s="69" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F130" s="73" t="s">
-        <v>389</v>
+        <v>549</v>
       </c>
       <c r="G130" s="69" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="H130" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I130" s="41" t="s">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="J130" s="38" t="s">
         <v>370</v>
@@ -5309,25 +5424,25 @@
     </row>
     <row r="131" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C131" s="74" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D131" s="69" t="s">
         <v>387</v>
       </c>
       <c r="E131" s="69" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F131" s="73" t="s">
-        <v>554</v>
+        <v>389</v>
       </c>
       <c r="G131" s="69" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="H131" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I131" s="41" t="s">
-        <v>555</v>
+        <v>390</v>
       </c>
       <c r="J131" s="38" t="s">
         <v>370</v>
@@ -5335,77 +5450,77 @@
     </row>
     <row r="132" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C132" s="74" t="s">
-        <v>393</v>
+        <v>553</v>
       </c>
       <c r="D132" s="69" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E132" s="69" t="s">
         <v>528</v>
       </c>
       <c r="F132" s="73" t="s">
-        <v>396</v>
+        <v>554</v>
       </c>
       <c r="G132" s="69" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="H132" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I132" s="41" t="s">
-        <v>397</v>
-      </c>
-      <c r="J132" s="41" t="s">
-        <v>209</v>
+        <v>555</v>
+      </c>
+      <c r="J132" s="38" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C133" s="74" t="s">
-        <v>556</v>
-      </c>
-      <c r="D133" s="65" t="s">
-        <v>401</v>
+        <v>393</v>
+      </c>
+      <c r="D133" s="69" t="s">
+        <v>394</v>
       </c>
       <c r="E133" s="69" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F133" s="73" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G133" s="69" t="s">
-        <v>404</v>
+        <v>129</v>
       </c>
       <c r="H133" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I133" s="41" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="J133" s="41" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C134" s="74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D134" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="E134" s="75" t="s">
-        <v>528</v>
+      <c r="E134" s="69" t="s">
+        <v>526</v>
       </c>
       <c r="F134" s="73" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G134" s="69" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="H134" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I134" s="41" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="J134" s="41" t="s">
         <v>286</v>
@@ -5413,77 +5528,77 @@
     </row>
     <row r="135" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C135" s="74" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D135" s="65" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E135" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F135" s="73" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G135" s="69" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="H135" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I135" s="41" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="J135" s="41" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C136" s="74" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D136" s="65" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E136" s="75" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F136" s="73" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G136" s="69" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="H136" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I136" s="41" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="J136" s="41" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
     </row>
     <row r="137" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C137" s="74" t="s">
-        <v>425</v>
-      </c>
-      <c r="D137" s="69" t="s">
-        <v>426</v>
+        <v>559</v>
+      </c>
+      <c r="D137" s="65" t="s">
+        <v>420</v>
       </c>
       <c r="E137" s="75" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F137" s="73" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G137" s="69" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="H137" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I137" s="41" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="J137" s="41" t="s">
         <v>286</v>
@@ -5491,16 +5606,16 @@
     </row>
     <row r="138" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C138" s="74" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D138" s="69" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E138" s="75" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F138" s="73" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G138" s="69" t="s">
         <v>129</v>
@@ -5509,7 +5624,7 @@
         <v>134</v>
       </c>
       <c r="I138" s="41" t="s">
-        <v>560</v>
+        <v>429</v>
       </c>
       <c r="J138" s="41" t="s">
         <v>286</v>
@@ -5517,25 +5632,25 @@
     </row>
     <row r="139" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C139" s="74" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D139" s="69" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E139" s="75" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F139" s="73" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G139" s="69" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="H139" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I139" s="41" t="s">
-        <v>442</v>
+        <v>560</v>
       </c>
       <c r="J139" s="41" t="s">
         <v>286</v>
@@ -5543,25 +5658,25 @@
     </row>
     <row r="140" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C140" s="74" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D140" s="69" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E140" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F140" s="73" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G140" s="69" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="H140" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I140" s="41" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="J140" s="41" t="s">
         <v>286</v>
@@ -5569,16 +5684,16 @@
     </row>
     <row r="141" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C141" s="74" t="s">
-        <v>448</v>
-      </c>
-      <c r="D141" s="79" t="s">
-        <v>449</v>
+        <v>443</v>
+      </c>
+      <c r="D141" s="69" t="s">
+        <v>444</v>
       </c>
       <c r="E141" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F141" s="73" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G141" s="69" t="s">
         <v>197</v>
@@ -5587,7 +5702,7 @@
         <v>134</v>
       </c>
       <c r="I141" s="41" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="J141" s="41" t="s">
         <v>286</v>
@@ -5595,16 +5710,16 @@
     </row>
     <row r="142" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C142" s="74" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D142" s="79" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E142" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F142" s="73" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="G142" s="69" t="s">
         <v>197</v>
@@ -5612,8 +5727,8 @@
       <c r="H142" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I142" s="63" t="s">
-        <v>561</v>
+      <c r="I142" s="41" t="s">
+        <v>452</v>
       </c>
       <c r="J142" s="41" t="s">
         <v>286</v>
@@ -5621,16 +5736,16 @@
     </row>
     <row r="143" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C143" s="74" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D143" s="79" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E143" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F143" s="73" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="G143" s="69" t="s">
         <v>197</v>
@@ -5638,8 +5753,8 @@
       <c r="H143" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I143" s="41" t="s">
-        <v>460</v>
+      <c r="I143" s="63" t="s">
+        <v>561</v>
       </c>
       <c r="J143" s="41" t="s">
         <v>286</v>
@@ -5647,16 +5762,16 @@
     </row>
     <row r="144" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C144" s="74" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D144" s="79" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E144" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F144" s="73" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="G144" s="69" t="s">
         <v>197</v>
@@ -5665,7 +5780,7 @@
         <v>134</v>
       </c>
       <c r="I144" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J144" s="41" t="s">
         <v>286</v>
@@ -5673,65 +5788,68 @@
     </row>
     <row r="145" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C145" s="74" t="s">
-        <v>562</v>
+        <v>461</v>
       </c>
       <c r="D145" s="79" t="s">
-        <v>563</v>
+        <v>462</v>
       </c>
       <c r="E145" s="75" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F145" s="73" t="s">
-        <v>564</v>
+        <v>410</v>
       </c>
       <c r="G145" s="69" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="H145" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I145" s="41" t="s">
-        <v>565</v>
+        <v>464</v>
       </c>
       <c r="J145" s="41" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C146" s="74" t="s">
-        <v>448</v>
+        <v>562</v>
       </c>
       <c r="D146" s="79" t="s">
-        <v>449</v>
+        <v>563</v>
       </c>
       <c r="E146" s="75" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F146" s="73" t="s">
-        <v>451</v>
+        <v>564</v>
       </c>
       <c r="G146" s="69" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="H146" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I146" s="41" t="s">
-        <v>452</v>
+        <v>565</v>
+      </c>
+      <c r="J146" s="41" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C147" s="74" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D147" s="79" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E147" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F147" s="73" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="G147" s="69" t="s">
         <v>197</v>
@@ -5739,22 +5857,22 @@
       <c r="H147" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I147" s="63" t="s">
-        <v>561</v>
+      <c r="I147" s="41" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="148" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C148" s="74" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D148" s="79" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E148" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F148" s="73" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="G148" s="69" t="s">
         <v>197</v>
@@ -5762,22 +5880,22 @@
       <c r="H148" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I148" s="41" t="s">
-        <v>460</v>
+      <c r="I148" s="63" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="149" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C149" s="74" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D149" s="79" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E149" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F149" s="73" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="G149" s="69" t="s">
         <v>197</v>
@@ -5786,29 +5904,52 @@
         <v>134</v>
       </c>
       <c r="I149" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C150" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="D150" s="79" t="s">
+        <v>462</v>
+      </c>
+      <c r="E150" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F150" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G150" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H150" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I150" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="151" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C151" s="74" t="s">
         <v>562</v>
       </c>
-      <c r="D150" s="79" t="s">
+      <c r="D151" s="79" t="s">
         <v>563</v>
       </c>
-      <c r="E150" s="75" t="s">
+      <c r="E151" s="75" t="s">
         <v>526</v>
       </c>
-      <c r="F150" s="73" t="s">
+      <c r="F151" s="73" t="s">
         <v>564</v>
       </c>
-      <c r="G150" s="69" t="s">
+      <c r="G151" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="H150" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I150" s="41" t="s">
+      <c r="H151" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I151" s="41" t="s">
         <v>565</v>
       </c>
     </row>
@@ -5822,8 +5963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView topLeftCell="C64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/RECC_Config_V2_0.xlsx
+++ b/RECC_Config_V2_0.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11865" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11894" uniqueCount="723">
   <si>
     <t>User Name</t>
   </si>
@@ -2184,6 +2184,24 @@
   </si>
   <si>
     <t>[18:27)</t>
+  </si>
+  <si>
+    <t>for ind + app</t>
+  </si>
+  <si>
+    <t>[72:89)</t>
+  </si>
+  <si>
+    <t>[27]</t>
+  </si>
+  <si>
+    <t>Pnco</t>
+  </si>
+  <si>
+    <t>wnco</t>
+  </si>
+  <si>
+    <t>mnco</t>
   </si>
 </sst>
 </file>
@@ -2657,9 +2675,9 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3128,8 +3146,8 @@
   </sheetPr>
   <dimension ref="A2:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3502,13 +3520,16 @@
         <v>63</v>
       </c>
       <c r="G25" s="69" t="s">
-        <v>64</v>
+        <v>719</v>
       </c>
       <c r="H25" s="70" t="s">
         <v>65</v>
       </c>
       <c r="I25" s="69" t="s">
         <v>66</v>
+      </c>
+      <c r="J25" s="69" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
@@ -3594,13 +3615,16 @@
         <v>93</v>
       </c>
       <c r="G29" s="69" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="H29" s="70" t="s">
         <v>94</v>
       </c>
       <c r="I29" s="69" t="s">
         <v>95</v>
+      </c>
+      <c r="J29" s="69" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="30" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -3624,6 +3648,9 @@
       </c>
       <c r="I30" s="69" t="s">
         <v>501</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="31" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -4338,31 +4365,30 @@
       <c r="B72" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C72" s="84" t="s">
-        <v>662</v>
+      <c r="C72" s="83" t="s">
+        <v>701</v>
       </c>
       <c r="D72" s="69" t="s">
-        <v>688</v>
+        <v>215</v>
       </c>
       <c r="E72" s="69" t="s">
         <v>528</v>
       </c>
       <c r="F72" s="85" t="s">
-        <v>653</v>
+        <v>705</v>
       </c>
       <c r="G72" s="69" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="H72" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I72" s="63" t="s">
-        <v>672</v>
+      <c r="I72" s="41" t="s">
+        <v>674</v>
       </c>
       <c r="J72" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="K72" s="89"/>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72" s="86"/>
@@ -4415,34 +4441,36 @@
       <c r="A74">
         <v>3</v>
       </c>
-      <c r="B74" s="54" t="s">
+      <c r="B74" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="83" t="s">
-        <v>701</v>
-      </c>
-      <c r="D74" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="E74" s="69" t="s">
+      <c r="C74" s="84" t="s">
+        <v>667</v>
+      </c>
+      <c r="D74" s="91" t="s">
+        <v>691</v>
+      </c>
+      <c r="E74" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F74" s="85" t="s">
-        <v>705</v>
-      </c>
-      <c r="G74" s="69" t="s">
-        <v>243</v>
+        <v>706</v>
+      </c>
+      <c r="G74" s="90" t="s">
+        <v>118</v>
       </c>
       <c r="H74" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I74" s="41" t="s">
-        <v>674</v>
-      </c>
-      <c r="J74" s="41" t="s">
+      <c r="I74" s="88" t="s">
+        <v>669</v>
+      </c>
+      <c r="J74" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="K74" s="36"/>
+      <c r="K74" s="35" t="s">
+        <v>687</v>
+      </c>
       <c r="M74" s="40"/>
       <c r="N74" s="87"/>
       <c r="O74" s="87"/>
@@ -4490,36 +4518,34 @@
       <c r="A76" s="41">
         <v>5</v>
       </c>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="54" t="s">
         <v>167</v>
       </c>
       <c r="C76" s="84" t="s">
-        <v>667</v>
-      </c>
-      <c r="D76" s="91" t="s">
-        <v>691</v>
-      </c>
-      <c r="E76" s="75" t="s">
+        <v>662</v>
+      </c>
+      <c r="D76" s="69" t="s">
+        <v>688</v>
+      </c>
+      <c r="E76" s="69" t="s">
         <v>528</v>
       </c>
       <c r="F76" s="85" t="s">
-        <v>706</v>
-      </c>
-      <c r="G76" s="90" t="s">
-        <v>118</v>
+        <v>653</v>
+      </c>
+      <c r="G76" s="69" t="s">
+        <v>134</v>
       </c>
       <c r="H76" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I76" s="88" t="s">
-        <v>669</v>
-      </c>
-      <c r="J76" s="40" t="s">
+      <c r="I76" s="63" t="s">
+        <v>672</v>
+      </c>
+      <c r="J76" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="K76" s="35" t="s">
-        <v>687</v>
-      </c>
+      <c r="K76" s="89"/>
       <c r="L76" s="40"/>
       <c r="N76" s="86"/>
       <c r="O76" s="86"/>
@@ -4530,135 +4556,149 @@
       <c r="A77" s="41">
         <v>6</v>
       </c>
-      <c r="B77" s="94"/>
+      <c r="B77" s="54" t="s">
+        <v>275</v>
+      </c>
       <c r="C77" s="74" t="s">
-        <v>542</v>
+        <v>276</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="E77" s="69" t="s">
-        <v>526</v>
+        <v>709</v>
       </c>
       <c r="F77" s="73" t="s">
-        <v>715</v>
+        <v>270</v>
       </c>
       <c r="G77" s="69" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="H77" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="J77" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="K77" s="35"/>
-      <c r="N77" s="86"/>
-      <c r="O77" s="86"/>
-      <c r="P77" s="86"/>
-      <c r="Q77" s="86"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="M77" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="N77" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="O77" s="87"/>
     </row>
     <row r="78" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
         <v>7</v>
       </c>
-      <c r="B78" s="94"/>
+      <c r="B78" s="54" t="s">
+        <v>167</v>
+      </c>
       <c r="C78" s="74" t="s">
-        <v>543</v>
+        <v>267</v>
       </c>
       <c r="D78" s="69" t="s">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="E78" s="69" t="s">
         <v>526</v>
       </c>
       <c r="F78" s="73" t="s">
-        <v>708</v>
+        <v>270</v>
       </c>
       <c r="G78" s="69" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="H78" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I78" s="41" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="J78" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="K78" s="35"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="87"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="M78" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="N78" s="49" t="s">
+        <v>274</v>
+      </c>
       <c r="O78" s="87"/>
-      <c r="P78" s="87"/>
-      <c r="Q78" s="87"/>
+      <c r="P78"/>
+      <c r="Q78" s="86"/>
     </row>
     <row r="79" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="56"/>
-      <c r="C79" s="74" t="s">
-        <v>349</v>
+      <c r="B79" s="93"/>
+      <c r="C79" s="94" t="s">
+        <v>542</v>
       </c>
       <c r="D79" s="69" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="E79" s="69" t="s">
         <v>526</v>
       </c>
       <c r="F79" s="73" t="s">
-        <v>352</v>
+        <v>715</v>
       </c>
       <c r="G79" s="69" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="H79" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="J79" s="41" t="s">
         <v>209</v>
       </c>
       <c r="K79" s="35"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="40"/>
-      <c r="N79" s="87"/>
-      <c r="O79" s="87"/>
-      <c r="P79" s="87"/>
+      <c r="N79" s="86"/>
+      <c r="O79" s="86"/>
+      <c r="P79" s="86"/>
       <c r="Q79" s="87"/>
     </row>
     <row r="80" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="56"/>
-      <c r="C80" s="74" t="s">
-        <v>355</v>
+      <c r="B80" s="93"/>
+      <c r="C80" s="94" t="s">
+        <v>543</v>
       </c>
       <c r="D80" s="69" t="s">
-        <v>356</v>
-      </c>
-      <c r="E80" s="75" t="s">
-        <v>528</v>
+        <v>344</v>
+      </c>
+      <c r="E80" s="69" t="s">
+        <v>526</v>
       </c>
       <c r="F80" s="73" t="s">
-        <v>358</v>
+        <v>708</v>
       </c>
       <c r="G80" s="69" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H80" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I80" s="41" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="J80" s="41" t="s">
         <v>209</v>
       </c>
       <c r="K80" s="35"/>
-      <c r="L80" s="40"/>
       <c r="M80" s="40"/>
       <c r="N80" s="87"/>
       <c r="O80" s="87"/>
@@ -4667,26 +4707,26 @@
     </row>
     <row r="81" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="56"/>
-      <c r="C81" s="74" t="s">
-        <v>540</v>
+      <c r="C81" s="94" t="s">
+        <v>349</v>
       </c>
       <c r="D81" s="69" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="E81" s="69" t="s">
-        <v>709</v>
+        <v>526</v>
       </c>
       <c r="F81" s="73" t="s">
-        <v>713</v>
+        <v>352</v>
       </c>
       <c r="G81" s="69" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="H81" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>541</v>
+        <v>353</v>
       </c>
       <c r="J81" s="41" t="s">
         <v>209</v>
@@ -4700,148 +4740,185 @@
       <c r="Q81" s="87"/>
     </row>
     <row r="82" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C82" s="74" t="s">
-        <v>267</v>
+      <c r="B82" s="56"/>
+      <c r="C82" s="94" t="s">
+        <v>355</v>
       </c>
       <c r="D82" s="69" t="s">
-        <v>268</v>
-      </c>
-      <c r="E82" s="69" t="s">
-        <v>526</v>
+        <v>356</v>
+      </c>
+      <c r="E82" s="75" t="s">
+        <v>528</v>
       </c>
       <c r="F82" s="73" t="s">
-        <v>270</v>
+        <v>721</v>
       </c>
       <c r="G82" s="69" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="H82" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="J82" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="K82" s="36"/>
-      <c r="L82" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="M82" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="N82" s="49" t="s">
-        <v>274</v>
-      </c>
+      <c r="K82" s="35"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="87"/>
       <c r="O82" s="87"/>
       <c r="P82" s="87"/>
       <c r="Q82" s="87"/>
     </row>
     <row r="83" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="C83" s="74" t="s">
-        <v>276</v>
+      <c r="B83" s="56"/>
+      <c r="C83" s="94" t="s">
+        <v>540</v>
       </c>
       <c r="D83" s="69" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="E83" s="69" t="s">
         <v>709</v>
       </c>
       <c r="F83" s="73" t="s">
-        <v>270</v>
+        <v>713</v>
       </c>
       <c r="G83" s="69" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="H83" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I83" s="41" t="s">
-        <v>279</v>
+        <v>541</v>
       </c>
       <c r="J83" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="K83" s="36"/>
-      <c r="L83" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="M83" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="N83" s="49" t="s">
-        <v>280</v>
-      </c>
+      <c r="K83" s="35"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="87"/>
       <c r="O83" s="87"/>
       <c r="P83" s="87"/>
       <c r="Q83" s="87"/>
     </row>
     <row r="84" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="56"/>
-      <c r="C84" s="93" t="s">
-        <v>712</v>
+      <c r="B84" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" s="94" t="s">
+        <v>361</v>
       </c>
       <c r="D84" s="69" t="s">
-        <v>387</v>
-      </c>
-      <c r="E84" s="69" t="s">
-        <v>710</v>
+        <v>362</v>
+      </c>
+      <c r="E84" s="75" t="s">
+        <v>526</v>
       </c>
       <c r="F84" s="73" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="G84" s="69" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="H84" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I84" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="J84" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="K84" s="35"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="40"/>
-      <c r="N84" s="87"/>
-      <c r="O84" s="87"/>
-      <c r="P84" s="87"/>
+        <v>365</v>
+      </c>
+      <c r="J84" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K84" s="42"/>
+      <c r="L84" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="M84" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="N84" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="O84" s="41" t="s">
+        <v>213</v>
+      </c>
       <c r="Q84" s="87"/>
     </row>
     <row r="85" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="56"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="69"/>
-      <c r="H85" s="69"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="40"/>
-      <c r="M85" s="40"/>
-      <c r="N85" s="87"/>
-      <c r="O85" s="87"/>
+      <c r="B85" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" s="94" t="s">
+        <v>539</v>
+      </c>
+      <c r="D85" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="E85" s="69" t="s">
+        <v>709</v>
+      </c>
+      <c r="F85" s="73" t="s">
+        <v>720</v>
+      </c>
+      <c r="G85" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H85" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I85" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="J85" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K85" s="42"/>
+      <c r="L85" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M85" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="N85" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="O85" s="41" t="s">
+        <v>213</v>
+      </c>
       <c r="P85" s="87"/>
-      <c r="Q85" s="87"/>
     </row>
     <row r="86" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="56"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="69"/>
-      <c r="H86" s="69"/>
+      <c r="C86" s="92" t="s">
+        <v>712</v>
+      </c>
+      <c r="D86" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="E86" s="69" t="s">
+        <v>710</v>
+      </c>
+      <c r="F86" s="73" t="s">
+        <v>711</v>
+      </c>
+      <c r="G86" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H86" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I86" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="J86" s="38" t="s">
+        <v>370</v>
+      </c>
       <c r="K86" s="35"/>
       <c r="L86" s="40"/>
       <c r="M86" s="40"/>
@@ -15893,8 +15970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q136"/>
   <sheetViews>
-    <sheetView topLeftCell="C104" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:P84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17544,7 +17621,7 @@
       <c r="B78" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="C78" s="74" t="s">
+      <c r="C78" s="94" t="s">
         <v>539</v>
       </c>
       <c r="D78" s="69" t="s">
@@ -17814,7 +17891,7 @@
       <c r="B84" s="54" t="s">
         <v>335</v>
       </c>
-      <c r="C84" s="74" t="s">
+      <c r="C84" s="94" t="s">
         <v>361</v>
       </c>
       <c r="D84" s="69" t="s">

--- a/RECC_Config_V2_0.xlsx
+++ b/RECC_Config_V2_0.xlsx
@@ -22,8 +22,8 @@
     <sheet name="RECC_France" sheetId="8" r:id="rId8"/>
     <sheet name="RECC_Germany (2)" sheetId="15" r:id="rId9"/>
     <sheet name="RECC_Germany" sheetId="9" r:id="rId10"/>
-    <sheet name="RECC_Italy" sheetId="10" r:id="rId11"/>
-    <sheet name="RECC_Japan" sheetId="11" r:id="rId12"/>
+    <sheet name="RECC_Japan" sheetId="11" r:id="rId11"/>
+    <sheet name="RECC_Italy" sheetId="10" r:id="rId12"/>
     <sheet name="RECC_UK" sheetId="12" r:id="rId13"/>
     <sheet name="RECC_China" sheetId="13" r:id="rId14"/>
     <sheet name="RECC_India" sheetId="14" r:id="rId15"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11894" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11902" uniqueCount="728">
   <si>
     <t>User Name</t>
   </si>
@@ -2159,9 +2159,6 @@
     <t>[0,1,5,7,8,11,14,20]</t>
   </si>
   <si>
-    <t>mwgFto</t>
-  </si>
-  <si>
     <t>V2.1</t>
   </si>
   <si>
@@ -2202,6 +2199,24 @@
   </si>
   <si>
     <t>mnco</t>
+  </si>
+  <si>
+    <t>mwgFo</t>
+  </si>
+  <si>
+    <t>VSK</t>
+  </si>
+  <si>
+    <t>4_PE_GHGIntensityEnergySupply_World</t>
+  </si>
+  <si>
+    <t>78d2ce45-41ed-4ff6-a8f8-64c5ea5f53c7</t>
+  </si>
+  <si>
+    <t>XnSRot</t>
+  </si>
+  <si>
+    <t>[200:401)</t>
   </si>
 </sst>
 </file>
@@ -3144,10 +3159,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Q151"/>
+  <dimension ref="A2:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3333,7 +3348,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="69" t="s">
-        <v>40</v>
+        <v>727</v>
       </c>
       <c r="H17" s="70" t="s">
         <v>36</v>
@@ -3359,7 +3374,7 @@
         <v>33</v>
       </c>
       <c r="G18" s="69" t="s">
-        <v>40</v>
+        <v>727</v>
       </c>
       <c r="H18" s="70" t="s">
         <v>41</v>
@@ -3520,7 +3535,7 @@
         <v>63</v>
       </c>
       <c r="G25" s="69" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H25" s="70" t="s">
         <v>65</v>
@@ -3569,7 +3584,7 @@
         <v>69</v>
       </c>
       <c r="G27" s="69" t="s">
-        <v>70</v>
+        <v>717</v>
       </c>
       <c r="H27" s="70" t="s">
         <v>71</v>
@@ -3615,7 +3630,7 @@
         <v>93</v>
       </c>
       <c r="G29" s="69" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H29" s="70" t="s">
         <v>94</v>
@@ -3624,7 +3639,7 @@
         <v>95</v>
       </c>
       <c r="J29" s="69" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="30" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -3807,7 +3822,7 @@
         <v>80</v>
       </c>
       <c r="G37" s="69" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H37" s="70" t="s">
         <v>82</v>
@@ -4566,7 +4581,7 @@
         <v>277</v>
       </c>
       <c r="E77" s="69" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F77" s="73" t="s">
         <v>270</v>
@@ -4652,7 +4667,7 @@
         <v>526</v>
       </c>
       <c r="F79" s="73" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G79" s="69" t="s">
         <v>243</v>
@@ -4684,10 +4699,10 @@
         <v>526</v>
       </c>
       <c r="F80" s="73" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="G80" s="69" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="H80" s="69" t="s">
         <v>134</v>
@@ -4751,7 +4766,7 @@
         <v>528</v>
       </c>
       <c r="F82" s="73" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G82" s="69" t="s">
         <v>197</v>
@@ -4782,10 +4797,10 @@
         <v>330</v>
       </c>
       <c r="E83" s="69" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F83" s="73" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G83" s="69" t="s">
         <v>197</v>
@@ -4821,7 +4836,7 @@
         <v>526</v>
       </c>
       <c r="F84" s="73" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G84" s="69" t="s">
         <v>197</v>
@@ -4861,10 +4876,10 @@
         <v>321</v>
       </c>
       <c r="E85" s="69" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F85" s="73" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G85" s="69" t="s">
         <v>197</v>
@@ -4896,16 +4911,16 @@
     <row r="86" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="56"/>
       <c r="C86" s="92" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D86" s="69" t="s">
         <v>387</v>
       </c>
       <c r="E86" s="69" t="s">
+        <v>709</v>
+      </c>
+      <c r="F86" s="73" t="s">
         <v>710</v>
-      </c>
-      <c r="F86" s="73" t="s">
-        <v>711</v>
       </c>
       <c r="G86" s="69" t="s">
         <v>118</v>
@@ -4927,92 +4942,97 @@
       <c r="P86" s="87"/>
       <c r="Q86" s="87"/>
     </row>
-    <row r="88" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="13" t="s">
+    <row r="87" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="56"/>
+      <c r="C87" s="92" t="s">
+        <v>724</v>
+      </c>
+      <c r="D87" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="E87" s="69" t="s">
+        <v>723</v>
+      </c>
+      <c r="F87" s="73" t="s">
+        <v>726</v>
+      </c>
+      <c r="G87" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="H87" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I87" s="41" t="s">
+        <v>725</v>
+      </c>
+      <c r="J87" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="K87" s="35"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="87"/>
+      <c r="O87" s="87"/>
+      <c r="P87" s="87"/>
+      <c r="Q87" s="87"/>
+    </row>
+    <row r="89" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="15"/>
-      <c r="K88" s="33" t="s">
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="15"/>
+      <c r="K89" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="N88" s="33" t="s">
+      <c r="N89" s="33" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C89" s="55" t="s">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C90" s="55" t="s">
         <v>467</v>
       </c>
-      <c r="K89" s="34"/>
-      <c r="L89" t="s">
+      <c r="K90" s="34"/>
+      <c r="L90" t="s">
         <v>468</v>
       </c>
-      <c r="M89" s="49"/>
-      <c r="N89" t="s">
+      <c r="M90" s="49"/>
+      <c r="N90" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C90" s="66" t="s">
-        <v>470</v>
-      </c>
-      <c r="D90" s="69" t="s">
-        <v>471</v>
-      </c>
-      <c r="E90" t="s">
-        <v>472</v>
-      </c>
-      <c r="K90" s="35"/>
-      <c r="L90" t="s">
-        <v>473</v>
-      </c>
-      <c r="M90" s="51"/>
-      <c r="N90" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C91" s="66" t="s">
-        <v>475</v>
-      </c>
-      <c r="D91" s="41" t="s">
-        <v>477</v>
+        <v>470</v>
+      </c>
+      <c r="D91" s="69" t="s">
+        <v>471</v>
       </c>
       <c r="E91" t="s">
-        <v>476</v>
-      </c>
-      <c r="F91" t="s">
-        <v>477</v>
-      </c>
-      <c r="G91" t="s">
-        <v>476</v>
-      </c>
-      <c r="H91" t="s">
-        <v>476</v>
-      </c>
-      <c r="I91" s="21"/>
-      <c r="K91" s="42"/>
+        <v>472</v>
+      </c>
+      <c r="K91" s="35"/>
       <c r="L91" t="s">
-        <v>478</v>
-      </c>
-      <c r="M91" s="52"/>
+        <v>473</v>
+      </c>
+      <c r="M91" s="51"/>
       <c r="N91" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C92" s="66" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D92" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="E92" s="38" t="s">
+      <c r="E92" t="s">
         <v>476</v>
       </c>
       <c r="F92" t="s">
@@ -5024,21 +5044,19 @@
       <c r="H92" t="s">
         <v>476</v>
       </c>
-      <c r="K92" s="36"/>
+      <c r="I92" s="21"/>
+      <c r="K92" s="42"/>
       <c r="L92" t="s">
-        <v>481</v>
-      </c>
-      <c r="M92" s="48"/>
+        <v>478</v>
+      </c>
+      <c r="M92" s="52"/>
       <c r="N92" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="93" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>483</v>
-      </c>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C93" s="66" t="s">
-        <v>568</v>
+        <v>480</v>
       </c>
       <c r="D93" s="41" t="s">
         <v>477</v>
@@ -5050,25 +5068,26 @@
         <v>477</v>
       </c>
       <c r="G93" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H93" t="s">
-        <v>477</v>
-      </c>
-      <c r="J93" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="M93" s="50"/>
+        <v>476</v>
+      </c>
+      <c r="K93" s="36"/>
+      <c r="L93" t="s">
+        <v>481</v>
+      </c>
+      <c r="M93" s="48"/>
       <c r="N93" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C94" s="66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D94" s="41" t="s">
         <v>477</v>
@@ -5085,16 +5104,20 @@
       <c r="H94" t="s">
         <v>477</v>
       </c>
-      <c r="J94" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="K94" t="s">
-        <v>489</v>
+      <c r="J94" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="M94" s="50"/>
+      <c r="N94" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>487</v>
+      </c>
       <c r="C95" s="66" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="D95" s="41" t="s">
         <v>477</v>
@@ -5106,21 +5129,21 @@
         <v>477</v>
       </c>
       <c r="G95" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H95" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J95" s="54" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="K95" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C96" s="66" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D96" s="41" t="s">
         <v>477</v>
@@ -5135,21 +5158,18 @@
         <v>476</v>
       </c>
       <c r="H96" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J96" s="54" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="K96" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>494</v>
-      </c>
       <c r="C97" s="66" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D97" s="41" t="s">
         <v>477</v>
@@ -5161,24 +5181,24 @@
         <v>477</v>
       </c>
       <c r="G97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H97" t="s">
         <v>477</v>
       </c>
       <c r="J97" s="54" t="s">
-        <v>370</v>
+        <v>209</v>
       </c>
       <c r="K97" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C98" s="66" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D98" s="41" t="s">
         <v>477</v>
@@ -5195,84 +5215,105 @@
       <c r="H98" t="s">
         <v>477</v>
       </c>
-      <c r="J98" s="54"/>
+      <c r="J98" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="K98" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>497</v>
+      </c>
       <c r="C99" s="66" t="s">
-        <v>499</v>
-      </c>
-      <c r="D99" s="80" t="s">
-        <v>714</v>
+        <v>498</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>477</v>
       </c>
       <c r="E99" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="F99" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="G99" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="H99" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="I99" s="38" t="s">
-        <v>51</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="F99" t="s">
+        <v>477</v>
+      </c>
+      <c r="G99" t="s">
+        <v>477</v>
+      </c>
+      <c r="H99" t="s">
+        <v>477</v>
+      </c>
+      <c r="J99" s="54"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C100" s="66" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D100" s="80" t="s">
-        <v>476</v>
+        <v>713</v>
       </c>
       <c r="E100" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="F100" s="38"/>
-      <c r="J100" s="54"/>
+        <v>500</v>
+      </c>
+      <c r="F100" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="G100" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="H100" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="I100" s="38" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C101" s="66" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="D101" s="80" t="s">
         <v>476</v>
       </c>
       <c r="E101" s="38" t="s">
-        <v>571</v>
+        <v>504</v>
       </c>
       <c r="F101" s="38"/>
       <c r="J101" s="54"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B103" s="13" t="s">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C102" s="66" t="s">
+        <v>570</v>
+      </c>
+      <c r="D102" s="80" t="s">
+        <v>476</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="F102" s="38"/>
+      <c r="J102" s="54"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B104" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="15"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C104" s="55" t="s">
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C105" s="55" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C105" s="69" t="s">
-        <v>507</v>
-      </c>
-      <c r="D105" s="65" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C106" s="69" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D106" s="65" t="s">
         <v>476</v>
@@ -5280,7 +5321,7 @@
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C107" s="69" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D107" s="65" t="s">
         <v>476</v>
@@ -5288,15 +5329,15 @@
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C108" s="69" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D108" s="65" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C109" s="69" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D109" s="65" t="s">
         <v>477</v>
@@ -5304,47 +5345,47 @@
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C110" s="69" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D110" s="65" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C111" s="80" t="s">
-        <v>513</v>
-      </c>
-      <c r="D111" s="81">
-        <v>400</v>
+      <c r="C111" s="69" t="s">
+        <v>512</v>
+      </c>
+      <c r="D111" s="65" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C112" s="80" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D112" s="81">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C113" s="80" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D113" s="81">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C114" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D114" s="81">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C115" s="80" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D115" s="81">
         <v>0</v>
@@ -5352,96 +5393,78 @@
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C116" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D116" s="81">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B118" s="13" t="s">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C117" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="D117" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B119" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="15"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C126" s="74" t="s">
-        <v>361</v>
-      </c>
-      <c r="D126" s="69" t="s">
-        <v>362</v>
-      </c>
-      <c r="E126" s="75" t="s">
-        <v>526</v>
-      </c>
-      <c r="F126" s="73" t="s">
-        <v>364</v>
-      </c>
-      <c r="G126" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H126" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I126" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="J126" s="41" t="s">
-        <v>209</v>
-      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="15"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C127" s="74" t="s">
-        <v>544</v>
+        <v>361</v>
       </c>
       <c r="D127" s="69" t="s">
-        <v>367</v>
-      </c>
-      <c r="E127" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="E127" s="75" t="s">
         <v>526</v>
       </c>
       <c r="F127" s="73" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="G127" s="69" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="H127" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I127" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="J127" s="38" t="s">
-        <v>370</v>
+        <v>365</v>
+      </c>
+      <c r="J127" s="41" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C128" s="74" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D128" s="69" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E128" s="69" t="s">
         <v>526</v>
       </c>
       <c r="F128" s="73" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="G128" s="69" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="H128" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I128" s="41" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="J128" s="38" t="s">
         <v>370</v>
@@ -5449,25 +5472,25 @@
     </row>
     <row r="129" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C129" s="74" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D129" s="69" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E129" s="69" t="s">
         <v>526</v>
       </c>
       <c r="F129" s="73" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G129" s="69" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="H129" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I129" s="41" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="J129" s="38" t="s">
         <v>370</v>
@@ -5475,16 +5498,16 @@
     </row>
     <row r="130" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C130" s="74" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D130" s="69" t="s">
-        <v>548</v>
+        <v>381</v>
       </c>
       <c r="E130" s="69" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F130" s="73" t="s">
-        <v>549</v>
+        <v>383</v>
       </c>
       <c r="G130" s="69" t="s">
         <v>197</v>
@@ -5493,7 +5516,7 @@
         <v>134</v>
       </c>
       <c r="I130" s="41" t="s">
-        <v>550</v>
+        <v>384</v>
       </c>
       <c r="J130" s="38" t="s">
         <v>370</v>
@@ -5501,25 +5524,25 @@
     </row>
     <row r="131" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C131" s="74" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D131" s="69" t="s">
-        <v>387</v>
+        <v>548</v>
       </c>
       <c r="E131" s="69" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F131" s="73" t="s">
-        <v>389</v>
+        <v>549</v>
       </c>
       <c r="G131" s="69" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="H131" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I131" s="41" t="s">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="J131" s="38" t="s">
         <v>370</v>
@@ -5527,25 +5550,25 @@
     </row>
     <row r="132" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C132" s="74" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D132" s="69" t="s">
         <v>387</v>
       </c>
       <c r="E132" s="69" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F132" s="73" t="s">
-        <v>554</v>
+        <v>389</v>
       </c>
       <c r="G132" s="69" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="H132" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I132" s="41" t="s">
-        <v>555</v>
+        <v>390</v>
       </c>
       <c r="J132" s="38" t="s">
         <v>370</v>
@@ -5553,77 +5576,77 @@
     </row>
     <row r="133" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C133" s="74" t="s">
-        <v>393</v>
+        <v>553</v>
       </c>
       <c r="D133" s="69" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E133" s="69" t="s">
         <v>528</v>
       </c>
       <c r="F133" s="73" t="s">
-        <v>396</v>
+        <v>554</v>
       </c>
       <c r="G133" s="69" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="H133" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I133" s="41" t="s">
-        <v>397</v>
-      </c>
-      <c r="J133" s="41" t="s">
-        <v>209</v>
+        <v>555</v>
+      </c>
+      <c r="J133" s="38" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C134" s="74" t="s">
-        <v>556</v>
-      </c>
-      <c r="D134" s="65" t="s">
-        <v>401</v>
+        <v>393</v>
+      </c>
+      <c r="D134" s="69" t="s">
+        <v>394</v>
       </c>
       <c r="E134" s="69" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F134" s="73" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G134" s="69" t="s">
-        <v>404</v>
+        <v>129</v>
       </c>
       <c r="H134" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I134" s="41" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="J134" s="41" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C135" s="74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D135" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="E135" s="75" t="s">
-        <v>528</v>
+      <c r="E135" s="69" t="s">
+        <v>526</v>
       </c>
       <c r="F135" s="73" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G135" s="69" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="H135" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I135" s="41" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="J135" s="41" t="s">
         <v>286</v>
@@ -5631,77 +5654,77 @@
     </row>
     <row r="136" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C136" s="74" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D136" s="65" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E136" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F136" s="73" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G136" s="69" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="H136" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I136" s="41" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="J136" s="41" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
     </row>
     <row r="137" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C137" s="74" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D137" s="65" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E137" s="75" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F137" s="73" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G137" s="69" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="H137" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I137" s="41" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="J137" s="41" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
     </row>
     <row r="138" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C138" s="74" t="s">
-        <v>425</v>
-      </c>
-      <c r="D138" s="69" t="s">
-        <v>426</v>
+        <v>559</v>
+      </c>
+      <c r="D138" s="65" t="s">
+        <v>420</v>
       </c>
       <c r="E138" s="75" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F138" s="73" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G138" s="69" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="H138" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I138" s="41" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="J138" s="41" t="s">
         <v>286</v>
@@ -5709,16 +5732,16 @@
     </row>
     <row r="139" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C139" s="74" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D139" s="69" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E139" s="75" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F139" s="73" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G139" s="69" t="s">
         <v>129</v>
@@ -5727,7 +5750,7 @@
         <v>134</v>
       </c>
       <c r="I139" s="41" t="s">
-        <v>560</v>
+        <v>429</v>
       </c>
       <c r="J139" s="41" t="s">
         <v>286</v>
@@ -5735,25 +5758,25 @@
     </row>
     <row r="140" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C140" s="74" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D140" s="69" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E140" s="75" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F140" s="73" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G140" s="69" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="H140" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I140" s="41" t="s">
-        <v>442</v>
+        <v>560</v>
       </c>
       <c r="J140" s="41" t="s">
         <v>286</v>
@@ -5761,25 +5784,25 @@
     </row>
     <row r="141" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C141" s="74" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D141" s="69" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E141" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F141" s="73" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G141" s="69" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="H141" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I141" s="41" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="J141" s="41" t="s">
         <v>286</v>
@@ -5787,16 +5810,16 @@
     </row>
     <row r="142" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C142" s="74" t="s">
-        <v>448</v>
-      </c>
-      <c r="D142" s="79" t="s">
-        <v>449</v>
+        <v>443</v>
+      </c>
+      <c r="D142" s="69" t="s">
+        <v>444</v>
       </c>
       <c r="E142" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F142" s="73" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G142" s="69" t="s">
         <v>197</v>
@@ -5805,7 +5828,7 @@
         <v>134</v>
       </c>
       <c r="I142" s="41" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="J142" s="41" t="s">
         <v>286</v>
@@ -5813,16 +5836,16 @@
     </row>
     <row r="143" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C143" s="74" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D143" s="79" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E143" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F143" s="73" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="G143" s="69" t="s">
         <v>197</v>
@@ -5830,8 +5853,8 @@
       <c r="H143" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I143" s="63" t="s">
-        <v>561</v>
+      <c r="I143" s="41" t="s">
+        <v>452</v>
       </c>
       <c r="J143" s="41" t="s">
         <v>286</v>
@@ -5839,16 +5862,16 @@
     </row>
     <row r="144" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C144" s="74" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D144" s="79" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E144" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F144" s="73" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="G144" s="69" t="s">
         <v>197</v>
@@ -5856,8 +5879,8 @@
       <c r="H144" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I144" s="41" t="s">
-        <v>460</v>
+      <c r="I144" s="63" t="s">
+        <v>561</v>
       </c>
       <c r="J144" s="41" t="s">
         <v>286</v>
@@ -5865,16 +5888,16 @@
     </row>
     <row r="145" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C145" s="74" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D145" s="79" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E145" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F145" s="73" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="G145" s="69" t="s">
         <v>197</v>
@@ -5883,7 +5906,7 @@
         <v>134</v>
       </c>
       <c r="I145" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J145" s="41" t="s">
         <v>286</v>
@@ -5891,65 +5914,68 @@
     </row>
     <row r="146" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C146" s="74" t="s">
-        <v>562</v>
+        <v>461</v>
       </c>
       <c r="D146" s="79" t="s">
-        <v>563</v>
+        <v>462</v>
       </c>
       <c r="E146" s="75" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F146" s="73" t="s">
-        <v>564</v>
+        <v>410</v>
       </c>
       <c r="G146" s="69" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="H146" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I146" s="41" t="s">
-        <v>565</v>
+        <v>464</v>
       </c>
       <c r="J146" s="41" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C147" s="74" t="s">
-        <v>448</v>
+        <v>562</v>
       </c>
       <c r="D147" s="79" t="s">
-        <v>449</v>
+        <v>563</v>
       </c>
       <c r="E147" s="75" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F147" s="73" t="s">
-        <v>451</v>
+        <v>564</v>
       </c>
       <c r="G147" s="69" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="H147" s="69" t="s">
         <v>134</v>
       </c>
       <c r="I147" s="41" t="s">
-        <v>452</v>
+        <v>565</v>
+      </c>
+      <c r="J147" s="41" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="148" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C148" s="74" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D148" s="79" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E148" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F148" s="73" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="G148" s="69" t="s">
         <v>197</v>
@@ -5957,22 +5983,22 @@
       <c r="H148" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I148" s="63" t="s">
-        <v>561</v>
+      <c r="I148" s="41" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="149" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C149" s="74" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D149" s="79" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E149" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F149" s="73" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="G149" s="69" t="s">
         <v>197</v>
@@ -5980,22 +6006,22 @@
       <c r="H149" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="I149" s="41" t="s">
-        <v>460</v>
+      <c r="I149" s="63" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="150" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C150" s="74" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D150" s="79" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E150" s="75" t="s">
         <v>528</v>
       </c>
       <c r="F150" s="73" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="G150" s="69" t="s">
         <v>197</v>
@@ -6004,29 +6030,52 @@
         <v>134</v>
       </c>
       <c r="I150" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="151" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C151" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="D151" s="79" t="s">
+        <v>462</v>
+      </c>
+      <c r="E151" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F151" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G151" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H151" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I151" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="152" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C152" s="74" t="s">
         <v>562</v>
       </c>
-      <c r="D151" s="79" t="s">
+      <c r="D152" s="79" t="s">
         <v>563</v>
       </c>
-      <c r="E151" s="75" t="s">
+      <c r="E152" s="75" t="s">
         <v>526</v>
       </c>
-      <c r="F151" s="73" t="s">
+      <c r="F152" s="73" t="s">
         <v>564</v>
       </c>
-      <c r="G151" s="69" t="s">
+      <c r="G152" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="H151" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I151" s="41" t="s">
+      <c r="H152" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I152" s="41" t="s">
         <v>565</v>
       </c>
     </row>
@@ -6037,3316 +6086,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q136"/>
-  <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="36.33203125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="44" style="41" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="38.44140625" style="41" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="38.44140625" style="41" customWidth="1"/>
-    <col min="10" max="11" width="11.5546875" style="41" customWidth="1"/>
-    <col min="12" max="12" width="73.5546875" style="41" customWidth="1"/>
-    <col min="13" max="13" width="39.88671875" style="41" customWidth="1"/>
-    <col min="14" max="14" width="90" style="41" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="4"/>
-      <c r="J8" s="38"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="J9" s="38"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="J10" s="38"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>606</v>
-      </c>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="38"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="69" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="69" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="H21" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="69" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="69" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" s="69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" s="69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30" s="69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="H31" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="I31" s="69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C32" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="I32" s="69" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C33" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="I33" s="69" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C34" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="I34" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="H35" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C36" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="G36" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="I36" s="69" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C37" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="I37" s="69" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="70" t="s">
-        <v>522</v>
-      </c>
-      <c r="D38" s="65" t="s">
-        <v>523</v>
-      </c>
-      <c r="E38" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="69" t="s">
-        <v>522</v>
-      </c>
-      <c r="G38" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="70" t="s">
-        <v>524</v>
-      </c>
-      <c r="I38" s="69" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C41" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C42" s="71">
-        <v>0</v>
-      </c>
-      <c r="D42" s="69" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" s="55"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C43" s="72">
-        <v>1</v>
-      </c>
-      <c r="D43" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="E43" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="F43" s="55"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C44" s="72">
-        <v>2</v>
-      </c>
-      <c r="D44" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="F44" s="55"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C45" s="72">
-        <v>3</v>
-      </c>
-      <c r="D45" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="E45" s="69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C46" s="72">
-        <v>4</v>
-      </c>
-      <c r="D46" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" s="69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C47" s="72">
-        <v>5</v>
-      </c>
-      <c r="D47" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C48" s="72">
-        <v>6</v>
-      </c>
-      <c r="D48" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" s="69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C49" s="72">
-        <v>7</v>
-      </c>
-      <c r="D49" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="E49" s="69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C50" s="72">
-        <v>8</v>
-      </c>
-      <c r="D50" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="E50" s="69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C51" s="72">
-        <v>9</v>
-      </c>
-      <c r="D51" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" s="69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C52" s="72">
-        <v>10</v>
-      </c>
-      <c r="D52" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" s="69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C53" s="72">
-        <v>11</v>
-      </c>
-      <c r="D53" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" s="69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C54" s="72">
-        <v>12</v>
-      </c>
-      <c r="D54" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C55" s="72">
-        <v>13</v>
-      </c>
-      <c r="D55" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" s="69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C56" s="72">
-        <v>14</v>
-      </c>
-      <c r="D56" s="69" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C57" s="72">
-        <v>15</v>
-      </c>
-      <c r="D57" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="E57" s="69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C58" s="72">
-        <v>16</v>
-      </c>
-      <c r="D58" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="E58" s="69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C59" s="72">
-        <v>17</v>
-      </c>
-      <c r="D59" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="E59" s="69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="15"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G62" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="H62" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="I62" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="J62" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="K62" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="L62" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="M62" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="N62" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="O62" s="53" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>0</v>
-      </c>
-      <c r="B63" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="C63" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="E63" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F63" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="G63" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H63" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I63" t="s">
-        <v>198</v>
-      </c>
-      <c r="J63" t="s">
-        <v>199</v>
-      </c>
-      <c r="K63" s="36"/>
-      <c r="L63" t="s">
-        <v>200</v>
-      </c>
-      <c r="M63" t="s">
-        <v>201</v>
-      </c>
-      <c r="N63" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="O63" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C64" s="66" t="s">
-        <v>527</v>
-      </c>
-      <c r="D64" s="69" t="s">
-        <v>205</v>
-      </c>
-      <c r="E64" s="69" t="s">
-        <v>528</v>
-      </c>
-      <c r="F64" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="G64" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H64" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I64" t="s">
-        <v>208</v>
-      </c>
-      <c r="J64" t="s">
-        <v>209</v>
-      </c>
-      <c r="K64" s="36"/>
-      <c r="L64" t="s">
-        <v>210</v>
-      </c>
-      <c r="M64" t="s">
-        <v>211</v>
-      </c>
-      <c r="N64" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="O64" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>2</v>
-      </c>
-      <c r="B65" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C65" s="66" t="s">
-        <v>529</v>
-      </c>
-      <c r="D65" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="E65" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F65" s="73" t="s">
-        <v>217</v>
-      </c>
-      <c r="G65" s="69" t="s">
-        <v>218</v>
-      </c>
-      <c r="H65" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I65" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="J65" t="s">
-        <v>199</v>
-      </c>
-      <c r="K65" s="36"/>
-      <c r="L65" t="s">
-        <v>210</v>
-      </c>
-      <c r="M65" t="s">
-        <v>220</v>
-      </c>
-      <c r="N65" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="O65" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>3</v>
-      </c>
-      <c r="B66" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="C66" s="74" t="s">
-        <v>530</v>
-      </c>
-      <c r="D66" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="E66" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F66" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="G66" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="H66" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="I66" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="J66" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="K66" s="36"/>
-      <c r="L66" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="M66" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="N66" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="O66" s="40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>4</v>
-      </c>
-      <c r="B67" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C67" s="66" t="s">
-        <v>531</v>
-      </c>
-      <c r="D67" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="E67" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F67" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="G67" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H67" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I67" t="s">
-        <v>236</v>
-      </c>
-      <c r="J67" t="s">
-        <v>199</v>
-      </c>
-      <c r="K67" s="36"/>
-      <c r="L67" t="s">
-        <v>210</v>
-      </c>
-      <c r="M67" t="s">
-        <v>237</v>
-      </c>
-      <c r="N67" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="O67" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>5</v>
-      </c>
-      <c r="B68" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C68" s="74" t="s">
-        <v>532</v>
-      </c>
-      <c r="D68" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="E68" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F68" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="G68" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="H68" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I68" t="s">
-        <v>244</v>
-      </c>
-      <c r="J68" t="s">
-        <v>209</v>
-      </c>
-      <c r="K68" s="42"/>
-      <c r="L68" t="s">
-        <v>245</v>
-      </c>
-      <c r="M68" t="s">
-        <v>246</v>
-      </c>
-      <c r="N68" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="O68" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>6</v>
-      </c>
-      <c r="B69" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C69" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="D69" s="69" t="s">
-        <v>249</v>
-      </c>
-      <c r="E69" s="69" t="s">
-        <v>533</v>
-      </c>
-      <c r="F69" s="73" t="s">
-        <v>251</v>
-      </c>
-      <c r="G69" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="H69" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I69" t="s">
-        <v>252</v>
-      </c>
-      <c r="J69" t="s">
-        <v>209</v>
-      </c>
-      <c r="K69" s="36"/>
-      <c r="L69" t="s">
-        <v>210</v>
-      </c>
-      <c r="M69" t="s">
-        <v>253</v>
-      </c>
-      <c r="N69" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="O69" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>7</v>
-      </c>
-      <c r="B70" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="C70" s="74" t="s">
-        <v>534</v>
-      </c>
-      <c r="D70" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="E70" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F70" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="G70" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="H70" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="I70" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="J70" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="K70" s="36"/>
-      <c r="L70" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="M70" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="N70" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="O70" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>8</v>
-      </c>
-      <c r="B71" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="C71" s="74" t="s">
-        <v>535</v>
-      </c>
-      <c r="D71" s="77" t="s">
-        <v>263</v>
-      </c>
-      <c r="E71" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F71" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="G71" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="H71" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="I71" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="J71" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="K71" s="36"/>
-      <c r="L71" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="M71" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="N71" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="O71" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>9</v>
-      </c>
-      <c r="B72" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="74" t="s">
-        <v>267</v>
-      </c>
-      <c r="D72" s="69" t="s">
-        <v>268</v>
-      </c>
-      <c r="E72" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F72" s="73" t="s">
-        <v>270</v>
-      </c>
-      <c r="G72" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="H72" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I72" t="s">
-        <v>271</v>
-      </c>
-      <c r="J72" t="s">
-        <v>209</v>
-      </c>
-      <c r="K72" s="36"/>
-      <c r="L72" t="s">
-        <v>272</v>
-      </c>
-      <c r="M72" t="s">
-        <v>273</v>
-      </c>
-      <c r="N72" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="O72" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>10</v>
-      </c>
-      <c r="B73" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="C73" s="74" t="s">
-        <v>276</v>
-      </c>
-      <c r="D73" s="69" t="s">
-        <v>277</v>
-      </c>
-      <c r="E73" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F73" s="73" t="s">
-        <v>270</v>
-      </c>
-      <c r="G73" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="H73" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I73" t="s">
-        <v>279</v>
-      </c>
-      <c r="J73" t="s">
-        <v>209</v>
-      </c>
-      <c r="K73" s="36"/>
-      <c r="L73" t="s">
-        <v>272</v>
-      </c>
-      <c r="M73" t="s">
-        <v>273</v>
-      </c>
-      <c r="N73" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="O73" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>11</v>
-      </c>
-      <c r="B74" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="C74" s="74" t="s">
-        <v>281</v>
-      </c>
-      <c r="D74" s="69" t="s">
-        <v>282</v>
-      </c>
-      <c r="E74" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F74" s="73" t="s">
-        <v>284</v>
-      </c>
-      <c r="G74" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H74" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I74" t="s">
-        <v>285</v>
-      </c>
-      <c r="J74" t="s">
-        <v>286</v>
-      </c>
-      <c r="K74" s="36"/>
-      <c r="L74" t="s">
-        <v>287</v>
-      </c>
-      <c r="M74" t="s">
-        <v>288</v>
-      </c>
-      <c r="N74" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="O74" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>12</v>
-      </c>
-      <c r="B75" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="C75" s="74" t="s">
-        <v>536</v>
-      </c>
-      <c r="D75" s="69" t="s">
-        <v>292</v>
-      </c>
-      <c r="E75" s="69" t="s">
-        <v>533</v>
-      </c>
-      <c r="F75" s="73" t="s">
-        <v>294</v>
-      </c>
-      <c r="G75" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="H75" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I75" t="s">
-        <v>295</v>
-      </c>
-      <c r="J75" t="s">
-        <v>286</v>
-      </c>
-      <c r="K75" s="47"/>
-      <c r="L75" t="s">
-        <v>296</v>
-      </c>
-      <c r="M75" t="s">
-        <v>297</v>
-      </c>
-      <c r="N75" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="O75" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>13</v>
-      </c>
-      <c r="B76" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="C76" s="74" t="s">
-        <v>300</v>
-      </c>
-      <c r="D76" s="69" t="s">
-        <v>301</v>
-      </c>
-      <c r="E76" s="69" t="s">
-        <v>533</v>
-      </c>
-      <c r="F76" s="76" t="s">
-        <v>303</v>
-      </c>
-      <c r="G76" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="H76" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I76" t="s">
-        <v>537</v>
-      </c>
-      <c r="J76" t="s">
-        <v>286</v>
-      </c>
-      <c r="K76" s="47"/>
-      <c r="L76" t="s">
-        <v>305</v>
-      </c>
-      <c r="M76" t="s">
-        <v>306</v>
-      </c>
-      <c r="N76" s="52" t="s">
-        <v>307</v>
-      </c>
-      <c r="O76" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>14</v>
-      </c>
-      <c r="B77" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="C77" s="74" t="s">
-        <v>538</v>
-      </c>
-      <c r="D77" s="69" t="s">
-        <v>313</v>
-      </c>
-      <c r="E77" s="69" t="s">
-        <v>533</v>
-      </c>
-      <c r="F77" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="G77" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="H77" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I77" t="s">
-        <v>316</v>
-      </c>
-      <c r="J77" t="s">
-        <v>209</v>
-      </c>
-      <c r="K77" s="42"/>
-      <c r="L77" t="s">
-        <v>317</v>
-      </c>
-      <c r="M77" t="s">
-        <v>318</v>
-      </c>
-      <c r="N77" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="O77" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>15</v>
-      </c>
-      <c r="B78" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="C78" s="74" t="s">
-        <v>539</v>
-      </c>
-      <c r="D78" s="69" t="s">
-        <v>321</v>
-      </c>
-      <c r="E78" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F78" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="G78" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H78" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I78" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="J78" t="s">
-        <v>209</v>
-      </c>
-      <c r="K78" s="42"/>
-      <c r="L78" t="s">
-        <v>325</v>
-      </c>
-      <c r="M78" t="s">
-        <v>326</v>
-      </c>
-      <c r="N78" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="O78" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>16</v>
-      </c>
-      <c r="B79" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="C79" s="74" t="s">
-        <v>540</v>
-      </c>
-      <c r="D79" s="69" t="s">
-        <v>330</v>
-      </c>
-      <c r="E79" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F79" s="73" t="s">
-        <v>332</v>
-      </c>
-      <c r="G79" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H79" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I79" t="s">
-        <v>541</v>
-      </c>
-      <c r="J79" t="s">
-        <v>209</v>
-      </c>
-      <c r="K79" s="42"/>
-      <c r="L79" t="s">
-        <v>317</v>
-      </c>
-      <c r="M79" t="s">
-        <v>326</v>
-      </c>
-      <c r="N79" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="O79" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>17</v>
-      </c>
-      <c r="B80" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="C80" s="74" t="s">
-        <v>542</v>
-      </c>
-      <c r="D80" s="69" t="s">
-        <v>337</v>
-      </c>
-      <c r="E80" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F80" s="73" t="s">
-        <v>339</v>
-      </c>
-      <c r="G80" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="H80" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I80" t="s">
-        <v>340</v>
-      </c>
-      <c r="J80" t="s">
-        <v>209</v>
-      </c>
-      <c r="K80" s="42"/>
-      <c r="L80" t="s">
-        <v>341</v>
-      </c>
-      <c r="M80" t="s">
-        <v>297</v>
-      </c>
-      <c r="N80" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="O80" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>18</v>
-      </c>
-      <c r="B81" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="C81" s="74" t="s">
-        <v>543</v>
-      </c>
-      <c r="D81" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="E81" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F81" s="73" t="s">
-        <v>346</v>
-      </c>
-      <c r="G81" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="H81" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I81" t="s">
-        <v>347</v>
-      </c>
-      <c r="J81" t="s">
-        <v>209</v>
-      </c>
-      <c r="K81" s="42"/>
-      <c r="L81" t="s">
-        <v>341</v>
-      </c>
-      <c r="M81" s="38">
-        <v>1</v>
-      </c>
-      <c r="N81" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="O81" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>19</v>
-      </c>
-      <c r="B82" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="C82" s="74" t="s">
-        <v>349</v>
-      </c>
-      <c r="D82" s="69" t="s">
-        <v>350</v>
-      </c>
-      <c r="E82" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F82" s="73" t="s">
-        <v>352</v>
-      </c>
-      <c r="G82" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="H82" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I82" t="s">
-        <v>353</v>
-      </c>
-      <c r="J82" t="s">
-        <v>209</v>
-      </c>
-      <c r="K82" s="36"/>
-      <c r="L82" t="s">
-        <v>317</v>
-      </c>
-      <c r="M82" s="38">
-        <v>1</v>
-      </c>
-      <c r="N82" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="O82" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>20</v>
-      </c>
-      <c r="B83" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="C83" s="74" t="s">
-        <v>355</v>
-      </c>
-      <c r="D83" s="69" t="s">
-        <v>356</v>
-      </c>
-      <c r="E83" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F83" s="73" t="s">
-        <v>358</v>
-      </c>
-      <c r="G83" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H83" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I83" t="s">
-        <v>359</v>
-      </c>
-      <c r="J83" t="s">
-        <v>209</v>
-      </c>
-      <c r="K83" s="42"/>
-      <c r="L83" t="s">
-        <v>341</v>
-      </c>
-      <c r="M83" t="s">
-        <v>326</v>
-      </c>
-      <c r="N83" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="O83" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>21</v>
-      </c>
-      <c r="B84" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="C84" s="74" t="s">
-        <v>361</v>
-      </c>
-      <c r="D84" s="69" t="s">
-        <v>362</v>
-      </c>
-      <c r="E84" s="75" t="s">
-        <v>526</v>
-      </c>
-      <c r="F84" s="73" t="s">
-        <v>364</v>
-      </c>
-      <c r="G84" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H84" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I84" t="s">
-        <v>365</v>
-      </c>
-      <c r="J84" t="s">
-        <v>209</v>
-      </c>
-      <c r="K84" s="42"/>
-      <c r="L84" t="s">
-        <v>341</v>
-      </c>
-      <c r="M84" t="s">
-        <v>326</v>
-      </c>
-      <c r="N84" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="O84" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>22</v>
-      </c>
-      <c r="B85" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="C85" s="74" t="s">
-        <v>544</v>
-      </c>
-      <c r="D85" s="69" t="s">
-        <v>367</v>
-      </c>
-      <c r="E85" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F85" s="73" t="s">
-        <v>339</v>
-      </c>
-      <c r="G85" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="H85" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I85" t="s">
-        <v>369</v>
-      </c>
-      <c r="J85" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="K85" s="36"/>
-      <c r="L85" t="s">
-        <v>371</v>
-      </c>
-      <c r="M85" t="s">
-        <v>372</v>
-      </c>
-      <c r="N85" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="O85" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>23</v>
-      </c>
-      <c r="B86" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C86" s="74" t="s">
-        <v>545</v>
-      </c>
-      <c r="D86" s="69" t="s">
-        <v>375</v>
-      </c>
-      <c r="E86" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F86" s="73" t="s">
-        <v>377</v>
-      </c>
-      <c r="G86" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="H86" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I86" t="s">
-        <v>378</v>
-      </c>
-      <c r="J86" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="K86" s="36"/>
-      <c r="L86" t="s">
-        <v>371</v>
-      </c>
-      <c r="M86" s="38">
-        <v>1</v>
-      </c>
-      <c r="N86" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="O86" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>24</v>
-      </c>
-      <c r="B87" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="C87" s="74" t="s">
-        <v>546</v>
-      </c>
-      <c r="D87" s="69" t="s">
-        <v>381</v>
-      </c>
-      <c r="E87" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F87" s="73" t="s">
-        <v>383</v>
-      </c>
-      <c r="G87" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H87" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I87" t="s">
-        <v>384</v>
-      </c>
-      <c r="J87" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="K87" s="36"/>
-      <c r="L87" t="s">
-        <v>371</v>
-      </c>
-      <c r="M87" s="38">
-        <v>1</v>
-      </c>
-      <c r="N87" s="48" t="s">
-        <v>385</v>
-      </c>
-      <c r="O87" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>25</v>
-      </c>
-      <c r="B88" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="C88" s="74" t="s">
-        <v>547</v>
-      </c>
-      <c r="D88" s="69" t="s">
-        <v>548</v>
-      </c>
-      <c r="E88" s="69" t="s">
-        <v>528</v>
-      </c>
-      <c r="F88" s="73" t="s">
-        <v>549</v>
-      </c>
-      <c r="G88" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H88" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I88" t="s">
-        <v>550</v>
-      </c>
-      <c r="J88" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="K88" s="36"/>
-      <c r="L88" t="s">
-        <v>371</v>
-      </c>
-      <c r="M88" s="38">
-        <v>1</v>
-      </c>
-      <c r="N88" s="48" t="s">
-        <v>551</v>
-      </c>
-      <c r="O88" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>26</v>
-      </c>
-      <c r="B89" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="C89" s="74" t="s">
-        <v>552</v>
-      </c>
-      <c r="D89" s="69" t="s">
-        <v>387</v>
-      </c>
-      <c r="E89" s="69" t="s">
-        <v>533</v>
-      </c>
-      <c r="F89" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="G89" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="H89" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I89" t="s">
-        <v>390</v>
-      </c>
-      <c r="J89" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="K89" s="36"/>
-      <c r="L89" t="s">
-        <v>391</v>
-      </c>
-      <c r="M89" s="38">
-        <v>1</v>
-      </c>
-      <c r="N89" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="O89" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>27</v>
-      </c>
-      <c r="B90" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="C90" s="74" t="s">
-        <v>553</v>
-      </c>
-      <c r="D90" s="69" t="s">
-        <v>387</v>
-      </c>
-      <c r="E90" s="69" t="s">
-        <v>528</v>
-      </c>
-      <c r="F90" s="73" t="s">
-        <v>554</v>
-      </c>
-      <c r="G90" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="H90" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I90" t="s">
-        <v>555</v>
-      </c>
-      <c r="J90" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="K90" s="36"/>
-      <c r="L90" t="s">
-        <v>391</v>
-      </c>
-      <c r="M90" s="38">
-        <v>1</v>
-      </c>
-      <c r="N90" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="O90" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>28</v>
-      </c>
-      <c r="B91" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="74" t="s">
-        <v>393</v>
-      </c>
-      <c r="D91" s="69" t="s">
-        <v>394</v>
-      </c>
-      <c r="E91" s="69" t="s">
-        <v>528</v>
-      </c>
-      <c r="F91" s="73" t="s">
-        <v>396</v>
-      </c>
-      <c r="G91" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="H91" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I91" t="s">
-        <v>397</v>
-      </c>
-      <c r="J91" t="s">
-        <v>209</v>
-      </c>
-      <c r="K91" s="36"/>
-      <c r="L91" t="s">
-        <v>398</v>
-      </c>
-      <c r="M91" t="s">
-        <v>306</v>
-      </c>
-      <c r="N91" s="49" t="s">
-        <v>399</v>
-      </c>
-      <c r="O91" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>29</v>
-      </c>
-      <c r="B92" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C92" s="74" t="s">
-        <v>556</v>
-      </c>
-      <c r="D92" s="65" t="s">
-        <v>401</v>
-      </c>
-      <c r="E92" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="F92" s="73" t="s">
-        <v>403</v>
-      </c>
-      <c r="G92" s="69" t="s">
-        <v>404</v>
-      </c>
-      <c r="H92" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I92" t="s">
-        <v>405</v>
-      </c>
-      <c r="J92" t="s">
-        <v>286</v>
-      </c>
-      <c r="K92" s="42"/>
-      <c r="L92" t="s">
-        <v>406</v>
-      </c>
-      <c r="M92" t="s">
-        <v>297</v>
-      </c>
-      <c r="N92" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="O92" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>30</v>
-      </c>
-      <c r="B93" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C93" s="74" t="s">
-        <v>557</v>
-      </c>
-      <c r="D93" s="65" t="s">
-        <v>401</v>
-      </c>
-      <c r="E93" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F93" s="73" t="s">
-        <v>410</v>
-      </c>
-      <c r="G93" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H93" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I93" t="s">
-        <v>411</v>
-      </c>
-      <c r="J93" t="s">
-        <v>286</v>
-      </c>
-      <c r="K93" s="36"/>
-      <c r="L93" t="s">
-        <v>412</v>
-      </c>
-      <c r="M93" t="s">
-        <v>297</v>
-      </c>
-      <c r="N93" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="O93" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>31</v>
-      </c>
-      <c r="B94" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C94" s="74" t="s">
-        <v>558</v>
-      </c>
-      <c r="D94" s="65" t="s">
-        <v>414</v>
-      </c>
-      <c r="E94" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F94" s="73" t="s">
-        <v>416</v>
-      </c>
-      <c r="G94" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="H94" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I94" t="s">
-        <v>417</v>
-      </c>
-      <c r="J94" t="s">
-        <v>209</v>
-      </c>
-      <c r="K94" s="36"/>
-      <c r="L94" t="s">
-        <v>412</v>
-      </c>
-      <c r="M94" t="s">
-        <v>297</v>
-      </c>
-      <c r="N94" s="51" t="s">
-        <v>418</v>
-      </c>
-      <c r="O94" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>32</v>
-      </c>
-      <c r="B95" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C95" s="74" t="s">
-        <v>559</v>
-      </c>
-      <c r="D95" s="65" t="s">
-        <v>420</v>
-      </c>
-      <c r="E95" s="75" t="s">
-        <v>526</v>
-      </c>
-      <c r="F95" s="73" t="s">
-        <v>422</v>
-      </c>
-      <c r="G95" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="H95" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I95" t="s">
-        <v>423</v>
-      </c>
-      <c r="J95" t="s">
-        <v>286</v>
-      </c>
-      <c r="K95" s="36"/>
-      <c r="L95" t="s">
-        <v>412</v>
-      </c>
-      <c r="M95" t="s">
-        <v>297</v>
-      </c>
-      <c r="N95" s="51" t="s">
-        <v>424</v>
-      </c>
-      <c r="O95" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>33</v>
-      </c>
-      <c r="B96" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C96" s="74" t="s">
-        <v>425</v>
-      </c>
-      <c r="D96" s="69" t="s">
-        <v>426</v>
-      </c>
-      <c r="E96" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F96" s="73" t="s">
-        <v>428</v>
-      </c>
-      <c r="G96" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="H96" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I96" t="s">
-        <v>429</v>
-      </c>
-      <c r="J96" t="s">
-        <v>286</v>
-      </c>
-      <c r="K96" s="36"/>
-      <c r="L96" t="s">
-        <v>412</v>
-      </c>
-      <c r="M96" t="s">
-        <v>430</v>
-      </c>
-      <c r="N96" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="O96" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>34</v>
-      </c>
-      <c r="B97" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C97" s="74" t="s">
-        <v>432</v>
-      </c>
-      <c r="D97" s="69" t="s">
-        <v>433</v>
-      </c>
-      <c r="E97" s="75" t="s">
-        <v>533</v>
-      </c>
-      <c r="F97" s="73" t="s">
-        <v>435</v>
-      </c>
-      <c r="G97" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="H97" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I97" t="s">
-        <v>560</v>
-      </c>
-      <c r="J97" t="s">
-        <v>286</v>
-      </c>
-      <c r="K97" s="36"/>
-      <c r="L97" t="s">
-        <v>412</v>
-      </c>
-      <c r="M97" t="s">
-        <v>437</v>
-      </c>
-      <c r="N97" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="O97" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>35</v>
-      </c>
-      <c r="B98" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C98" s="74" t="s">
-        <v>438</v>
-      </c>
-      <c r="D98" s="69" t="s">
-        <v>439</v>
-      </c>
-      <c r="E98" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F98" s="73" t="s">
-        <v>441</v>
-      </c>
-      <c r="G98" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="H98" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I98" t="s">
-        <v>442</v>
-      </c>
-      <c r="J98" t="s">
-        <v>286</v>
-      </c>
-      <c r="K98" s="36"/>
-      <c r="L98" t="s">
-        <v>412</v>
-      </c>
-      <c r="M98" t="s">
-        <v>430</v>
-      </c>
-      <c r="N98" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="O98" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>36</v>
-      </c>
-      <c r="B99" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C99" s="74" t="s">
-        <v>443</v>
-      </c>
-      <c r="D99" s="69" t="s">
-        <v>444</v>
-      </c>
-      <c r="E99" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F99" s="73" t="s">
-        <v>446</v>
-      </c>
-      <c r="G99" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H99" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I99" t="s">
-        <v>447</v>
-      </c>
-      <c r="J99" t="s">
-        <v>286</v>
-      </c>
-      <c r="K99" s="36"/>
-      <c r="L99" t="s">
-        <v>412</v>
-      </c>
-      <c r="M99" t="s">
-        <v>437</v>
-      </c>
-      <c r="N99" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="O99" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>37</v>
-      </c>
-      <c r="B100" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C100" s="74" t="s">
-        <v>448</v>
-      </c>
-      <c r="D100" s="79" t="s">
-        <v>449</v>
-      </c>
-      <c r="E100" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F100" s="73" t="s">
-        <v>451</v>
-      </c>
-      <c r="G100" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H100" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I100" t="s">
-        <v>452</v>
-      </c>
-      <c r="J100" t="s">
-        <v>286</v>
-      </c>
-      <c r="K100" s="36"/>
-      <c r="L100" t="s">
-        <v>412</v>
-      </c>
-      <c r="M100" t="s">
-        <v>297</v>
-      </c>
-      <c r="N100" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="O100" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>38</v>
-      </c>
-      <c r="B101" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C101" s="74" t="s">
-        <v>453</v>
-      </c>
-      <c r="D101" s="79" t="s">
-        <v>454</v>
-      </c>
-      <c r="E101" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F101" s="73" t="s">
-        <v>410</v>
-      </c>
-      <c r="G101" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H101" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I101" s="63" t="s">
-        <v>561</v>
-      </c>
-      <c r="J101" t="s">
-        <v>286</v>
-      </c>
-      <c r="K101" s="36"/>
-      <c r="L101" t="s">
-        <v>412</v>
-      </c>
-      <c r="M101" t="s">
-        <v>297</v>
-      </c>
-      <c r="N101" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="O101" s="40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>39</v>
-      </c>
-      <c r="B102" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C102" s="74" t="s">
-        <v>457</v>
-      </c>
-      <c r="D102" s="79" t="s">
-        <v>458</v>
-      </c>
-      <c r="E102" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F102" s="73" t="s">
-        <v>451</v>
-      </c>
-      <c r="G102" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H102" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I102" t="s">
-        <v>460</v>
-      </c>
-      <c r="J102" t="s">
-        <v>286</v>
-      </c>
-      <c r="K102" s="36"/>
-      <c r="L102" t="s">
-        <v>412</v>
-      </c>
-      <c r="M102" t="s">
-        <v>297</v>
-      </c>
-      <c r="N102" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="O102" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>40</v>
-      </c>
-      <c r="B103" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C103" s="74" t="s">
-        <v>461</v>
-      </c>
-      <c r="D103" s="79" t="s">
-        <v>462</v>
-      </c>
-      <c r="E103" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F103" s="73" t="s">
-        <v>410</v>
-      </c>
-      <c r="G103" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H103" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I103" t="s">
-        <v>464</v>
-      </c>
-      <c r="J103" t="s">
-        <v>286</v>
-      </c>
-      <c r="K103" s="36"/>
-      <c r="L103" t="s">
-        <v>412</v>
-      </c>
-      <c r="M103" t="s">
-        <v>297</v>
-      </c>
-      <c r="N103" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="O103" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>41</v>
-      </c>
-      <c r="B104" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C104" s="74" t="s">
-        <v>562</v>
-      </c>
-      <c r="D104" s="79" t="s">
-        <v>563</v>
-      </c>
-      <c r="E104" s="75" t="s">
-        <v>526</v>
-      </c>
-      <c r="F104" s="73" t="s">
-        <v>564</v>
-      </c>
-      <c r="G104" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="H104" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="I104" t="s">
-        <v>565</v>
-      </c>
-      <c r="J104" t="s">
-        <v>209</v>
-      </c>
-      <c r="K104" s="36"/>
-      <c r="L104" t="s">
-        <v>412</v>
-      </c>
-      <c r="M104" t="s">
-        <v>566</v>
-      </c>
-      <c r="N104" t="s">
-        <v>567</v>
-      </c>
-      <c r="O104" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="15"/>
-      <c r="K106" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="N106" s="33" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C107" s="55" t="s">
-        <v>467</v>
-      </c>
-      <c r="K107" s="34"/>
-      <c r="L107" t="s">
-        <v>468</v>
-      </c>
-      <c r="M107" s="49"/>
-      <c r="N107" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C108" s="66" t="s">
-        <v>470</v>
-      </c>
-      <c r="D108" s="69" t="s">
-        <v>471</v>
-      </c>
-      <c r="E108" t="s">
-        <v>472</v>
-      </c>
-      <c r="K108" s="35"/>
-      <c r="L108" t="s">
-        <v>473</v>
-      </c>
-      <c r="M108" s="51"/>
-      <c r="N108" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C109" s="66" t="s">
-        <v>475</v>
-      </c>
-      <c r="D109" s="69" t="s">
-        <v>476</v>
-      </c>
-      <c r="E109" t="s">
-        <v>476</v>
-      </c>
-      <c r="F109" t="s">
-        <v>477</v>
-      </c>
-      <c r="G109" t="s">
-        <v>476</v>
-      </c>
-      <c r="H109" t="s">
-        <v>476</v>
-      </c>
-      <c r="I109" s="21"/>
-      <c r="K109" s="42"/>
-      <c r="L109" t="s">
-        <v>478</v>
-      </c>
-      <c r="M109" s="52"/>
-      <c r="N109" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C110" s="66" t="s">
-        <v>480</v>
-      </c>
-      <c r="D110" s="69" t="s">
-        <v>476</v>
-      </c>
-      <c r="E110" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F110" t="s">
-        <v>477</v>
-      </c>
-      <c r="G110" t="s">
-        <v>476</v>
-      </c>
-      <c r="H110" t="s">
-        <v>476</v>
-      </c>
-      <c r="K110" s="36"/>
-      <c r="L110" t="s">
-        <v>481</v>
-      </c>
-      <c r="M110" s="48"/>
-      <c r="N110" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>483</v>
-      </c>
-      <c r="C111" s="66" t="s">
-        <v>568</v>
-      </c>
-      <c r="D111" s="69" t="s">
-        <v>476</v>
-      </c>
-      <c r="E111" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F111" t="s">
-        <v>477</v>
-      </c>
-      <c r="G111" t="s">
-        <v>477</v>
-      </c>
-      <c r="H111" t="s">
-        <v>477</v>
-      </c>
-      <c r="J111" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="M111" s="50"/>
-      <c r="N111" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>487</v>
-      </c>
-      <c r="C112" s="66" t="s">
-        <v>569</v>
-      </c>
-      <c r="D112" s="69" t="s">
-        <v>476</v>
-      </c>
-      <c r="E112" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F112" t="s">
-        <v>477</v>
-      </c>
-      <c r="G112" t="s">
-        <v>477</v>
-      </c>
-      <c r="H112" t="s">
-        <v>477</v>
-      </c>
-      <c r="J112" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="K112" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C113" s="66" t="s">
-        <v>490</v>
-      </c>
-      <c r="D113" s="69" t="s">
-        <v>476</v>
-      </c>
-      <c r="E113" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F113" t="s">
-        <v>477</v>
-      </c>
-      <c r="G113" t="s">
-        <v>476</v>
-      </c>
-      <c r="H113" t="s">
-        <v>476</v>
-      </c>
-      <c r="J113" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="K113" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C114" s="66" t="s">
-        <v>492</v>
-      </c>
-      <c r="D114" s="69" t="s">
-        <v>476</v>
-      </c>
-      <c r="E114" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F114" t="s">
-        <v>477</v>
-      </c>
-      <c r="G114" t="s">
-        <v>476</v>
-      </c>
-      <c r="H114" t="s">
-        <v>477</v>
-      </c>
-      <c r="J114" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="K114" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>494</v>
-      </c>
-      <c r="C115" s="66" t="s">
-        <v>495</v>
-      </c>
-      <c r="D115" s="69" t="s">
-        <v>476</v>
-      </c>
-      <c r="E115" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F115" t="s">
-        <v>477</v>
-      </c>
-      <c r="G115" t="s">
-        <v>477</v>
-      </c>
-      <c r="H115" t="s">
-        <v>477</v>
-      </c>
-      <c r="J115" s="54" t="s">
-        <v>370</v>
-      </c>
-      <c r="K115" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>497</v>
-      </c>
-      <c r="C116" s="66" t="s">
-        <v>498</v>
-      </c>
-      <c r="D116" s="69" t="s">
-        <v>477</v>
-      </c>
-      <c r="E116" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F116" t="s">
-        <v>477</v>
-      </c>
-      <c r="G116" t="s">
-        <v>477</v>
-      </c>
-      <c r="H116" t="s">
-        <v>477</v>
-      </c>
-      <c r="J116" s="54"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C117" s="66" t="s">
-        <v>499</v>
-      </c>
-      <c r="D117" s="80" t="s">
-        <v>502</v>
-      </c>
-      <c r="E117" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="F117" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="G117" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="H117" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="I117" s="38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C118" s="66" t="s">
-        <v>503</v>
-      </c>
-      <c r="D118" s="80" t="s">
-        <v>476</v>
-      </c>
-      <c r="E118" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="F118" s="38"/>
-      <c r="J118" s="54"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C119" s="66" t="s">
-        <v>570</v>
-      </c>
-      <c r="D119" s="80" t="s">
-        <v>476</v>
-      </c>
-      <c r="E119" s="38" t="s">
-        <v>571</v>
-      </c>
-      <c r="F119" s="38"/>
-      <c r="J119" s="54"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B121" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="15"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C122" s="55" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C123" s="69" t="s">
-        <v>507</v>
-      </c>
-      <c r="D123" s="65" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C124" s="69" t="s">
-        <v>508</v>
-      </c>
-      <c r="D124" s="65" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C125" s="69" t="s">
-        <v>509</v>
-      </c>
-      <c r="D125" s="65" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C126" s="69" t="s">
-        <v>510</v>
-      </c>
-      <c r="D126" s="65" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C127" s="69" t="s">
-        <v>511</v>
-      </c>
-      <c r="D127" s="65" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C128" s="69" t="s">
-        <v>512</v>
-      </c>
-      <c r="D128" s="65" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C129" s="80" t="s">
-        <v>513</v>
-      </c>
-      <c r="D129" s="81">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C130" s="80" t="s">
-        <v>514</v>
-      </c>
-      <c r="D130" s="81">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C131" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D131" s="81">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C132" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D132" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C133" s="80" t="s">
-        <v>517</v>
-      </c>
-      <c r="D133" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C134" s="80" t="s">
-        <v>518</v>
-      </c>
-      <c r="D134" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B136" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q136"/>
   <sheetViews>
@@ -9630,6 +6369,3316 @@
       </c>
       <c r="G21" s="69" t="s">
         <v>595</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30" s="69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C33" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" s="69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C36" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="I36" s="69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C37" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37" s="69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C38" s="70" t="s">
+        <v>522</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>523</v>
+      </c>
+      <c r="E38" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="69" t="s">
+        <v>522</v>
+      </c>
+      <c r="G38" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>524</v>
+      </c>
+      <c r="I38" s="69" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C41" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C42" s="71">
+        <v>0</v>
+      </c>
+      <c r="D42" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="55"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C43" s="72">
+        <v>1</v>
+      </c>
+      <c r="D43" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="55"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C44" s="72">
+        <v>2</v>
+      </c>
+      <c r="D44" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="55"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C45" s="72">
+        <v>3</v>
+      </c>
+      <c r="D45" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C46" s="72">
+        <v>4</v>
+      </c>
+      <c r="D46" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C47" s="72">
+        <v>5</v>
+      </c>
+      <c r="D47" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C48" s="72">
+        <v>6</v>
+      </c>
+      <c r="D48" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C49" s="72">
+        <v>7</v>
+      </c>
+      <c r="D49" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C50" s="72">
+        <v>8</v>
+      </c>
+      <c r="D50" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C51" s="72">
+        <v>9</v>
+      </c>
+      <c r="D51" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C52" s="72">
+        <v>10</v>
+      </c>
+      <c r="D52" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C53" s="72">
+        <v>11</v>
+      </c>
+      <c r="D53" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C54" s="72">
+        <v>12</v>
+      </c>
+      <c r="D54" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C55" s="72">
+        <v>13</v>
+      </c>
+      <c r="D55" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C56" s="72">
+        <v>14</v>
+      </c>
+      <c r="D56" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C57" s="72">
+        <v>15</v>
+      </c>
+      <c r="D57" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C58" s="72">
+        <v>16</v>
+      </c>
+      <c r="D58" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C59" s="72">
+        <v>17</v>
+      </c>
+      <c r="D59" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B61" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="J62" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="K62" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="L62" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="M62" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="N62" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="O62" s="53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F63" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H63" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I63" t="s">
+        <v>198</v>
+      </c>
+      <c r="J63" t="s">
+        <v>199</v>
+      </c>
+      <c r="K63" s="36"/>
+      <c r="L63" t="s">
+        <v>200</v>
+      </c>
+      <c r="M63" t="s">
+        <v>201</v>
+      </c>
+      <c r="N63" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="O63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="66" t="s">
+        <v>527</v>
+      </c>
+      <c r="D64" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="E64" s="69" t="s">
+        <v>528</v>
+      </c>
+      <c r="F64" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="G64" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H64" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I64" t="s">
+        <v>208</v>
+      </c>
+      <c r="J64" t="s">
+        <v>209</v>
+      </c>
+      <c r="K64" s="36"/>
+      <c r="L64" t="s">
+        <v>210</v>
+      </c>
+      <c r="M64" t="s">
+        <v>211</v>
+      </c>
+      <c r="N64" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="O64" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="66" t="s">
+        <v>529</v>
+      </c>
+      <c r="D65" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="E65" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F65" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="G65" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="H65" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I65" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="J65" t="s">
+        <v>199</v>
+      </c>
+      <c r="K65" s="36"/>
+      <c r="L65" t="s">
+        <v>210</v>
+      </c>
+      <c r="M65" t="s">
+        <v>220</v>
+      </c>
+      <c r="N65" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="O65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="74" t="s">
+        <v>530</v>
+      </c>
+      <c r="D66" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F66" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="G66" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="H66" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="J66" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="K66" s="36"/>
+      <c r="L66" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="M66" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="N66" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="O66" s="40" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="66" t="s">
+        <v>531</v>
+      </c>
+      <c r="D67" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F67" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="G67" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H67" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I67" t="s">
+        <v>236</v>
+      </c>
+      <c r="J67" t="s">
+        <v>199</v>
+      </c>
+      <c r="K67" s="36"/>
+      <c r="L67" t="s">
+        <v>210</v>
+      </c>
+      <c r="M67" t="s">
+        <v>237</v>
+      </c>
+      <c r="N67" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="O67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="74" t="s">
+        <v>532</v>
+      </c>
+      <c r="D68" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="E68" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F68" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="G68" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="H68" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I68" t="s">
+        <v>244</v>
+      </c>
+      <c r="J68" t="s">
+        <v>209</v>
+      </c>
+      <c r="K68" s="42"/>
+      <c r="L68" t="s">
+        <v>245</v>
+      </c>
+      <c r="M68" t="s">
+        <v>246</v>
+      </c>
+      <c r="N68" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="O68" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="E69" s="69" t="s">
+        <v>533</v>
+      </c>
+      <c r="F69" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="G69" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H69" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69" t="s">
+        <v>252</v>
+      </c>
+      <c r="J69" t="s">
+        <v>209</v>
+      </c>
+      <c r="K69" s="36"/>
+      <c r="L69" t="s">
+        <v>210</v>
+      </c>
+      <c r="M69" t="s">
+        <v>253</v>
+      </c>
+      <c r="N69" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="O69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="74" t="s">
+        <v>534</v>
+      </c>
+      <c r="D70" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F70" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="G70" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="H70" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="I70" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="J70" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="K70" s="36"/>
+      <c r="L70" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="M70" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="N70" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="O70" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="74" t="s">
+        <v>535</v>
+      </c>
+      <c r="D71" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="E71" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F71" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="G71" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="H71" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="I71" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="J71" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="K71" s="36"/>
+      <c r="L71" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="M71" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="N71" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="O71" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="E72" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F72" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="G72" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H72" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I72" t="s">
+        <v>271</v>
+      </c>
+      <c r="J72" t="s">
+        <v>209</v>
+      </c>
+      <c r="K72" s="36"/>
+      <c r="L72" t="s">
+        <v>272</v>
+      </c>
+      <c r="M72" t="s">
+        <v>273</v>
+      </c>
+      <c r="N72" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="O72" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="E73" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F73" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="G73" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H73" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I73" t="s">
+        <v>279</v>
+      </c>
+      <c r="J73" t="s">
+        <v>209</v>
+      </c>
+      <c r="K73" s="36"/>
+      <c r="L73" t="s">
+        <v>272</v>
+      </c>
+      <c r="M73" t="s">
+        <v>273</v>
+      </c>
+      <c r="N73" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="O73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="D74" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F74" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="G74" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H74" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I74" t="s">
+        <v>285</v>
+      </c>
+      <c r="J74" t="s">
+        <v>286</v>
+      </c>
+      <c r="K74" s="36"/>
+      <c r="L74" t="s">
+        <v>287</v>
+      </c>
+      <c r="M74" t="s">
+        <v>288</v>
+      </c>
+      <c r="N74" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="O74" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="74" t="s">
+        <v>536</v>
+      </c>
+      <c r="D75" s="69" t="s">
+        <v>292</v>
+      </c>
+      <c r="E75" s="69" t="s">
+        <v>533</v>
+      </c>
+      <c r="F75" s="73" t="s">
+        <v>294</v>
+      </c>
+      <c r="G75" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H75" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I75" t="s">
+        <v>295</v>
+      </c>
+      <c r="J75" t="s">
+        <v>286</v>
+      </c>
+      <c r="K75" s="47"/>
+      <c r="L75" t="s">
+        <v>296</v>
+      </c>
+      <c r="M75" t="s">
+        <v>297</v>
+      </c>
+      <c r="N75" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="O75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="C76" s="74" t="s">
+        <v>300</v>
+      </c>
+      <c r="D76" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="E76" s="69" t="s">
+        <v>533</v>
+      </c>
+      <c r="F76" s="76" t="s">
+        <v>303</v>
+      </c>
+      <c r="G76" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="H76" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I76" t="s">
+        <v>537</v>
+      </c>
+      <c r="J76" t="s">
+        <v>286</v>
+      </c>
+      <c r="K76" s="47"/>
+      <c r="L76" t="s">
+        <v>305</v>
+      </c>
+      <c r="M76" t="s">
+        <v>306</v>
+      </c>
+      <c r="N76" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="O76" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>14</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C77" s="74" t="s">
+        <v>538</v>
+      </c>
+      <c r="D77" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="E77" s="69" t="s">
+        <v>533</v>
+      </c>
+      <c r="F77" s="73" t="s">
+        <v>315</v>
+      </c>
+      <c r="G77" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="H77" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I77" t="s">
+        <v>316</v>
+      </c>
+      <c r="J77" t="s">
+        <v>209</v>
+      </c>
+      <c r="K77" s="42"/>
+      <c r="L77" t="s">
+        <v>317</v>
+      </c>
+      <c r="M77" t="s">
+        <v>318</v>
+      </c>
+      <c r="N77" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="O77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>15</v>
+      </c>
+      <c r="B78" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" s="74" t="s">
+        <v>539</v>
+      </c>
+      <c r="D78" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="E78" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F78" s="73" t="s">
+        <v>323</v>
+      </c>
+      <c r="G78" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H78" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I78" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="J78" t="s">
+        <v>209</v>
+      </c>
+      <c r="K78" s="42"/>
+      <c r="L78" t="s">
+        <v>325</v>
+      </c>
+      <c r="M78" t="s">
+        <v>326</v>
+      </c>
+      <c r="N78" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="O78" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="C79" s="74" t="s">
+        <v>540</v>
+      </c>
+      <c r="D79" s="69" t="s">
+        <v>330</v>
+      </c>
+      <c r="E79" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F79" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="G79" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H79" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I79" t="s">
+        <v>541</v>
+      </c>
+      <c r="J79" t="s">
+        <v>209</v>
+      </c>
+      <c r="K79" s="42"/>
+      <c r="L79" t="s">
+        <v>317</v>
+      </c>
+      <c r="M79" t="s">
+        <v>326</v>
+      </c>
+      <c r="N79" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="O79" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>17</v>
+      </c>
+      <c r="B80" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C80" s="74" t="s">
+        <v>542</v>
+      </c>
+      <c r="D80" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="E80" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F80" s="73" t="s">
+        <v>339</v>
+      </c>
+      <c r="G80" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="H80" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I80" t="s">
+        <v>340</v>
+      </c>
+      <c r="J80" t="s">
+        <v>209</v>
+      </c>
+      <c r="K80" s="42"/>
+      <c r="L80" t="s">
+        <v>341</v>
+      </c>
+      <c r="M80" t="s">
+        <v>297</v>
+      </c>
+      <c r="N80" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="O80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>18</v>
+      </c>
+      <c r="B81" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="C81" s="74" t="s">
+        <v>543</v>
+      </c>
+      <c r="D81" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="E81" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F81" s="73" t="s">
+        <v>346</v>
+      </c>
+      <c r="G81" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="H81" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I81" t="s">
+        <v>347</v>
+      </c>
+      <c r="J81" t="s">
+        <v>209</v>
+      </c>
+      <c r="K81" s="42"/>
+      <c r="L81" t="s">
+        <v>341</v>
+      </c>
+      <c r="M81" s="38">
+        <v>1</v>
+      </c>
+      <c r="N81" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="O81" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>19</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C82" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="D82" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="E82" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F82" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="G82" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="H82" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I82" t="s">
+        <v>353</v>
+      </c>
+      <c r="J82" t="s">
+        <v>209</v>
+      </c>
+      <c r="K82" s="36"/>
+      <c r="L82" t="s">
+        <v>317</v>
+      </c>
+      <c r="M82" s="38">
+        <v>1</v>
+      </c>
+      <c r="N82" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="O82" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>20</v>
+      </c>
+      <c r="B83" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C83" s="74" t="s">
+        <v>355</v>
+      </c>
+      <c r="D83" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="E83" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F83" s="73" t="s">
+        <v>358</v>
+      </c>
+      <c r="G83" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H83" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I83" t="s">
+        <v>359</v>
+      </c>
+      <c r="J83" t="s">
+        <v>209</v>
+      </c>
+      <c r="K83" s="42"/>
+      <c r="L83" t="s">
+        <v>341</v>
+      </c>
+      <c r="M83" t="s">
+        <v>326</v>
+      </c>
+      <c r="N83" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="O83" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>21</v>
+      </c>
+      <c r="B84" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" s="74" t="s">
+        <v>361</v>
+      </c>
+      <c r="D84" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="E84" s="75" t="s">
+        <v>526</v>
+      </c>
+      <c r="F84" s="73" t="s">
+        <v>364</v>
+      </c>
+      <c r="G84" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H84" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I84" t="s">
+        <v>365</v>
+      </c>
+      <c r="J84" t="s">
+        <v>209</v>
+      </c>
+      <c r="K84" s="42"/>
+      <c r="L84" t="s">
+        <v>341</v>
+      </c>
+      <c r="M84" t="s">
+        <v>326</v>
+      </c>
+      <c r="N84" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="O84" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>22</v>
+      </c>
+      <c r="B85" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C85" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="D85" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="E85" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F85" s="73" t="s">
+        <v>339</v>
+      </c>
+      <c r="G85" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="H85" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I85" t="s">
+        <v>369</v>
+      </c>
+      <c r="J85" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="K85" s="36"/>
+      <c r="L85" t="s">
+        <v>371</v>
+      </c>
+      <c r="M85" t="s">
+        <v>372</v>
+      </c>
+      <c r="N85" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="O85" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>23</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="74" t="s">
+        <v>545</v>
+      </c>
+      <c r="D86" s="69" t="s">
+        <v>375</v>
+      </c>
+      <c r="E86" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F86" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="G86" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H86" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I86" t="s">
+        <v>378</v>
+      </c>
+      <c r="J86" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="K86" s="36"/>
+      <c r="L86" t="s">
+        <v>371</v>
+      </c>
+      <c r="M86" s="38">
+        <v>1</v>
+      </c>
+      <c r="N86" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="O86" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>24</v>
+      </c>
+      <c r="B87" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="C87" s="74" t="s">
+        <v>546</v>
+      </c>
+      <c r="D87" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="E87" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F87" s="73" t="s">
+        <v>383</v>
+      </c>
+      <c r="G87" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H87" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I87" t="s">
+        <v>384</v>
+      </c>
+      <c r="J87" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="K87" s="36"/>
+      <c r="L87" t="s">
+        <v>371</v>
+      </c>
+      <c r="M87" s="38">
+        <v>1</v>
+      </c>
+      <c r="N87" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="O87" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>25</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="C88" s="74" t="s">
+        <v>547</v>
+      </c>
+      <c r="D88" s="69" t="s">
+        <v>548</v>
+      </c>
+      <c r="E88" s="69" t="s">
+        <v>528</v>
+      </c>
+      <c r="F88" s="73" t="s">
+        <v>549</v>
+      </c>
+      <c r="G88" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H88" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I88" t="s">
+        <v>550</v>
+      </c>
+      <c r="J88" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="K88" s="36"/>
+      <c r="L88" t="s">
+        <v>371</v>
+      </c>
+      <c r="M88" s="38">
+        <v>1</v>
+      </c>
+      <c r="N88" s="48" t="s">
+        <v>551</v>
+      </c>
+      <c r="O88" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>26</v>
+      </c>
+      <c r="B89" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C89" s="74" t="s">
+        <v>552</v>
+      </c>
+      <c r="D89" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="E89" s="69" t="s">
+        <v>533</v>
+      </c>
+      <c r="F89" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="G89" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H89" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I89" t="s">
+        <v>390</v>
+      </c>
+      <c r="J89" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="K89" s="36"/>
+      <c r="L89" t="s">
+        <v>391</v>
+      </c>
+      <c r="M89" s="38">
+        <v>1</v>
+      </c>
+      <c r="N89" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="O89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>27</v>
+      </c>
+      <c r="B90" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" s="74" t="s">
+        <v>553</v>
+      </c>
+      <c r="D90" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="E90" s="69" t="s">
+        <v>528</v>
+      </c>
+      <c r="F90" s="73" t="s">
+        <v>554</v>
+      </c>
+      <c r="G90" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="H90" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I90" t="s">
+        <v>555</v>
+      </c>
+      <c r="J90" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="K90" s="36"/>
+      <c r="L90" t="s">
+        <v>391</v>
+      </c>
+      <c r="M90" s="38">
+        <v>1</v>
+      </c>
+      <c r="N90" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="O90" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>28</v>
+      </c>
+      <c r="B91" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="D91" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="E91" s="69" t="s">
+        <v>528</v>
+      </c>
+      <c r="F91" s="73" t="s">
+        <v>396</v>
+      </c>
+      <c r="G91" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H91" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I91" t="s">
+        <v>397</v>
+      </c>
+      <c r="J91" t="s">
+        <v>209</v>
+      </c>
+      <c r="K91" s="36"/>
+      <c r="L91" t="s">
+        <v>398</v>
+      </c>
+      <c r="M91" t="s">
+        <v>306</v>
+      </c>
+      <c r="N91" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="O91" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>29</v>
+      </c>
+      <c r="B92" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="74" t="s">
+        <v>556</v>
+      </c>
+      <c r="D92" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="E92" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F92" s="73" t="s">
+        <v>403</v>
+      </c>
+      <c r="G92" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="H92" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I92" t="s">
+        <v>405</v>
+      </c>
+      <c r="J92" t="s">
+        <v>286</v>
+      </c>
+      <c r="K92" s="42"/>
+      <c r="L92" t="s">
+        <v>406</v>
+      </c>
+      <c r="M92" t="s">
+        <v>297</v>
+      </c>
+      <c r="N92" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="O92" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>30</v>
+      </c>
+      <c r="B93" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="74" t="s">
+        <v>557</v>
+      </c>
+      <c r="D93" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="E93" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F93" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G93" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H93" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I93" t="s">
+        <v>411</v>
+      </c>
+      <c r="J93" t="s">
+        <v>286</v>
+      </c>
+      <c r="K93" s="36"/>
+      <c r="L93" t="s">
+        <v>412</v>
+      </c>
+      <c r="M93" t="s">
+        <v>297</v>
+      </c>
+      <c r="N93" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="O93" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>31</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" s="74" t="s">
+        <v>558</v>
+      </c>
+      <c r="D94" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E94" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F94" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="G94" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="H94" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I94" t="s">
+        <v>417</v>
+      </c>
+      <c r="J94" t="s">
+        <v>209</v>
+      </c>
+      <c r="K94" s="36"/>
+      <c r="L94" t="s">
+        <v>412</v>
+      </c>
+      <c r="M94" t="s">
+        <v>297</v>
+      </c>
+      <c r="N94" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="O94" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>32</v>
+      </c>
+      <c r="B95" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" s="74" t="s">
+        <v>559</v>
+      </c>
+      <c r="D95" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="E95" s="75" t="s">
+        <v>526</v>
+      </c>
+      <c r="F95" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="G95" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="H95" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I95" t="s">
+        <v>423</v>
+      </c>
+      <c r="J95" t="s">
+        <v>286</v>
+      </c>
+      <c r="K95" s="36"/>
+      <c r="L95" t="s">
+        <v>412</v>
+      </c>
+      <c r="M95" t="s">
+        <v>297</v>
+      </c>
+      <c r="N95" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O95" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>33</v>
+      </c>
+      <c r="B96" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" s="74" t="s">
+        <v>425</v>
+      </c>
+      <c r="D96" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="E96" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F96" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="G96" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H96" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I96" t="s">
+        <v>429</v>
+      </c>
+      <c r="J96" t="s">
+        <v>286</v>
+      </c>
+      <c r="K96" s="36"/>
+      <c r="L96" t="s">
+        <v>412</v>
+      </c>
+      <c r="M96" t="s">
+        <v>430</v>
+      </c>
+      <c r="N96" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="O96" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>34</v>
+      </c>
+      <c r="B97" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="D97" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="E97" s="75" t="s">
+        <v>533</v>
+      </c>
+      <c r="F97" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="G97" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H97" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I97" t="s">
+        <v>560</v>
+      </c>
+      <c r="J97" t="s">
+        <v>286</v>
+      </c>
+      <c r="K97" s="36"/>
+      <c r="L97" t="s">
+        <v>412</v>
+      </c>
+      <c r="M97" t="s">
+        <v>437</v>
+      </c>
+      <c r="N97" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="O97" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>35</v>
+      </c>
+      <c r="B98" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C98" s="74" t="s">
+        <v>438</v>
+      </c>
+      <c r="D98" s="69" t="s">
+        <v>439</v>
+      </c>
+      <c r="E98" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F98" s="73" t="s">
+        <v>441</v>
+      </c>
+      <c r="G98" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H98" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I98" t="s">
+        <v>442</v>
+      </c>
+      <c r="J98" t="s">
+        <v>286</v>
+      </c>
+      <c r="K98" s="36"/>
+      <c r="L98" t="s">
+        <v>412</v>
+      </c>
+      <c r="M98" t="s">
+        <v>430</v>
+      </c>
+      <c r="N98" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="O98" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>36</v>
+      </c>
+      <c r="B99" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="D99" s="69" t="s">
+        <v>444</v>
+      </c>
+      <c r="E99" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F99" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="G99" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H99" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I99" t="s">
+        <v>447</v>
+      </c>
+      <c r="J99" t="s">
+        <v>286</v>
+      </c>
+      <c r="K99" s="36"/>
+      <c r="L99" t="s">
+        <v>412</v>
+      </c>
+      <c r="M99" t="s">
+        <v>437</v>
+      </c>
+      <c r="N99" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="O99" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>37</v>
+      </c>
+      <c r="B100" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C100" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="D100" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="E100" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F100" s="73" t="s">
+        <v>451</v>
+      </c>
+      <c r="G100" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H100" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I100" t="s">
+        <v>452</v>
+      </c>
+      <c r="J100" t="s">
+        <v>286</v>
+      </c>
+      <c r="K100" s="36"/>
+      <c r="L100" t="s">
+        <v>412</v>
+      </c>
+      <c r="M100" t="s">
+        <v>297</v>
+      </c>
+      <c r="N100" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="O100" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>38</v>
+      </c>
+      <c r="B101" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C101" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="D101" s="79" t="s">
+        <v>454</v>
+      </c>
+      <c r="E101" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F101" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G101" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H101" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I101" s="63" t="s">
+        <v>561</v>
+      </c>
+      <c r="J101" t="s">
+        <v>286</v>
+      </c>
+      <c r="K101" s="36"/>
+      <c r="L101" t="s">
+        <v>412</v>
+      </c>
+      <c r="M101" t="s">
+        <v>297</v>
+      </c>
+      <c r="N101" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="O101" s="40" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>39</v>
+      </c>
+      <c r="B102" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C102" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="D102" s="79" t="s">
+        <v>458</v>
+      </c>
+      <c r="E102" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F102" s="73" t="s">
+        <v>451</v>
+      </c>
+      <c r="G102" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H102" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I102" t="s">
+        <v>460</v>
+      </c>
+      <c r="J102" t="s">
+        <v>286</v>
+      </c>
+      <c r="K102" s="36"/>
+      <c r="L102" t="s">
+        <v>412</v>
+      </c>
+      <c r="M102" t="s">
+        <v>297</v>
+      </c>
+      <c r="N102" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="O102" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>40</v>
+      </c>
+      <c r="B103" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C103" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="D103" s="79" t="s">
+        <v>462</v>
+      </c>
+      <c r="E103" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F103" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G103" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H103" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I103" t="s">
+        <v>464</v>
+      </c>
+      <c r="J103" t="s">
+        <v>286</v>
+      </c>
+      <c r="K103" s="36"/>
+      <c r="L103" t="s">
+        <v>412</v>
+      </c>
+      <c r="M103" t="s">
+        <v>297</v>
+      </c>
+      <c r="N103" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="O103" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>41</v>
+      </c>
+      <c r="B104" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C104" s="74" t="s">
+        <v>562</v>
+      </c>
+      <c r="D104" s="79" t="s">
+        <v>563</v>
+      </c>
+      <c r="E104" s="75" t="s">
+        <v>526</v>
+      </c>
+      <c r="F104" s="73" t="s">
+        <v>564</v>
+      </c>
+      <c r="G104" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H104" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I104" t="s">
+        <v>565</v>
+      </c>
+      <c r="J104" t="s">
+        <v>209</v>
+      </c>
+      <c r="K104" s="36"/>
+      <c r="L104" t="s">
+        <v>412</v>
+      </c>
+      <c r="M104" t="s">
+        <v>566</v>
+      </c>
+      <c r="N104" t="s">
+        <v>567</v>
+      </c>
+      <c r="O104" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="15"/>
+      <c r="K106" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="N106" s="33" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C107" s="55" t="s">
+        <v>467</v>
+      </c>
+      <c r="K107" s="34"/>
+      <c r="L107" t="s">
+        <v>468</v>
+      </c>
+      <c r="M107" s="49"/>
+      <c r="N107" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C108" s="66" t="s">
+        <v>470</v>
+      </c>
+      <c r="D108" s="69" t="s">
+        <v>471</v>
+      </c>
+      <c r="E108" t="s">
+        <v>472</v>
+      </c>
+      <c r="K108" s="35"/>
+      <c r="L108" t="s">
+        <v>473</v>
+      </c>
+      <c r="M108" s="51"/>
+      <c r="N108" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C109" s="66" t="s">
+        <v>475</v>
+      </c>
+      <c r="D109" s="69" t="s">
+        <v>476</v>
+      </c>
+      <c r="E109" t="s">
+        <v>476</v>
+      </c>
+      <c r="F109" t="s">
+        <v>477</v>
+      </c>
+      <c r="G109" t="s">
+        <v>476</v>
+      </c>
+      <c r="H109" t="s">
+        <v>476</v>
+      </c>
+      <c r="I109" s="21"/>
+      <c r="K109" s="42"/>
+      <c r="L109" t="s">
+        <v>478</v>
+      </c>
+      <c r="M109" s="52"/>
+      <c r="N109" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C110" s="66" t="s">
+        <v>480</v>
+      </c>
+      <c r="D110" s="69" t="s">
+        <v>476</v>
+      </c>
+      <c r="E110" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F110" t="s">
+        <v>477</v>
+      </c>
+      <c r="G110" t="s">
+        <v>476</v>
+      </c>
+      <c r="H110" t="s">
+        <v>476</v>
+      </c>
+      <c r="K110" s="36"/>
+      <c r="L110" t="s">
+        <v>481</v>
+      </c>
+      <c r="M110" s="48"/>
+      <c r="N110" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>483</v>
+      </c>
+      <c r="C111" s="66" t="s">
+        <v>568</v>
+      </c>
+      <c r="D111" s="69" t="s">
+        <v>476</v>
+      </c>
+      <c r="E111" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F111" t="s">
+        <v>477</v>
+      </c>
+      <c r="G111" t="s">
+        <v>477</v>
+      </c>
+      <c r="H111" t="s">
+        <v>477</v>
+      </c>
+      <c r="J111" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="M111" s="50"/>
+      <c r="N111" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>487</v>
+      </c>
+      <c r="C112" s="66" t="s">
+        <v>569</v>
+      </c>
+      <c r="D112" s="69" t="s">
+        <v>476</v>
+      </c>
+      <c r="E112" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F112" t="s">
+        <v>477</v>
+      </c>
+      <c r="G112" t="s">
+        <v>477</v>
+      </c>
+      <c r="H112" t="s">
+        <v>477</v>
+      </c>
+      <c r="J112" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="K112" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C113" s="66" t="s">
+        <v>490</v>
+      </c>
+      <c r="D113" s="69" t="s">
+        <v>476</v>
+      </c>
+      <c r="E113" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F113" t="s">
+        <v>477</v>
+      </c>
+      <c r="G113" t="s">
+        <v>476</v>
+      </c>
+      <c r="H113" t="s">
+        <v>476</v>
+      </c>
+      <c r="J113" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="K113" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C114" s="66" t="s">
+        <v>492</v>
+      </c>
+      <c r="D114" s="69" t="s">
+        <v>476</v>
+      </c>
+      <c r="E114" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F114" t="s">
+        <v>477</v>
+      </c>
+      <c r="G114" t="s">
+        <v>476</v>
+      </c>
+      <c r="H114" t="s">
+        <v>477</v>
+      </c>
+      <c r="J114" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="K114" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>494</v>
+      </c>
+      <c r="C115" s="66" t="s">
+        <v>495</v>
+      </c>
+      <c r="D115" s="69" t="s">
+        <v>476</v>
+      </c>
+      <c r="E115" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F115" t="s">
+        <v>477</v>
+      </c>
+      <c r="G115" t="s">
+        <v>477</v>
+      </c>
+      <c r="H115" t="s">
+        <v>477</v>
+      </c>
+      <c r="J115" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="K115" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>497</v>
+      </c>
+      <c r="C116" s="66" t="s">
+        <v>498</v>
+      </c>
+      <c r="D116" s="69" t="s">
+        <v>477</v>
+      </c>
+      <c r="E116" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="F116" t="s">
+        <v>477</v>
+      </c>
+      <c r="G116" t="s">
+        <v>477</v>
+      </c>
+      <c r="H116" t="s">
+        <v>477</v>
+      </c>
+      <c r="J116" s="54"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C117" s="66" t="s">
+        <v>499</v>
+      </c>
+      <c r="D117" s="80" t="s">
+        <v>502</v>
+      </c>
+      <c r="E117" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="F117" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="G117" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="H117" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="I117" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C118" s="66" t="s">
+        <v>503</v>
+      </c>
+      <c r="D118" s="80" t="s">
+        <v>476</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="F118" s="38"/>
+      <c r="J118" s="54"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C119" s="66" t="s">
+        <v>570</v>
+      </c>
+      <c r="D119" s="80" t="s">
+        <v>476</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="F119" s="38"/>
+      <c r="J119" s="54"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B121" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="15"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C122" s="55" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C123" s="69" t="s">
+        <v>507</v>
+      </c>
+      <c r="D123" s="65" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C124" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="D124" s="65" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C125" s="69" t="s">
+        <v>509</v>
+      </c>
+      <c r="D125" s="65" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C126" s="69" t="s">
+        <v>510</v>
+      </c>
+      <c r="D126" s="65" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C127" s="69" t="s">
+        <v>511</v>
+      </c>
+      <c r="D127" s="65" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C128" s="69" t="s">
+        <v>512</v>
+      </c>
+      <c r="D128" s="65" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C129" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D129" s="81">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C130" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="D130" s="81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C131" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D131" s="81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C132" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D132" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C133" s="80" t="s">
+        <v>517</v>
+      </c>
+      <c r="D133" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C134" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="D134" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B136" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q136"/>
+  <sheetViews>
+    <sheetView topLeftCell="D15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="36.33203125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="44" style="41" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="38.44140625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="41" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" style="41" customWidth="1"/>
+    <col min="10" max="11" width="11.5546875" style="41" customWidth="1"/>
+    <col min="12" max="12" width="73.5546875" style="41" customWidth="1"/>
+    <col min="13" max="13" width="39.88671875" style="41" customWidth="1"/>
+    <col min="14" max="14" width="90" style="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="J10" s="38"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>606</v>
+      </c>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="38"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="H21" s="70" t="s">
         <v>58</v>
